--- a/POIMatching/data/高德POI类型与国土空间规划用途分类对应关系.xlsx
+++ b/POIMatching/data/高德POI类型与国土空间规划用途分类对应关系.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\Documents\实验室\CAAD\126_中心路网提取\Utilis\POIMatching\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1147fc941031227d/Documents/实验室/CAAD/126_中心路网提取/Utilis/POIMatching/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD1549B-8121-4153-92BC-E832E5E46793}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{4DD1549B-8121-4153-92BC-E832E5E46793}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B5C97F16-1BBA-45E3-8E7D-9A788027D0A8}"/>
   <bookViews>
-    <workbookView xWindow="990" yWindow="465" windowWidth="21585" windowHeight="13770" xr2:uid="{8E8C5824-BE63-4A15-84B3-10FA2273864A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8E8C5824-BE63-4A15-84B3-10FA2273864A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2565" uniqueCount="1805">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2565" uniqueCount="1806">
   <si>
     <t>汽车服务相关</t>
   </si>
@@ -3941,1531 +3941,1536 @@
     <t>070401</t>
   </si>
   <si>
+    <t>070501</t>
+  </si>
+  <si>
+    <t>070600</t>
+  </si>
+  <si>
+    <t>070601</t>
+  </si>
+  <si>
+    <t>070603</t>
+  </si>
+  <si>
+    <t>070604</t>
+  </si>
+  <si>
+    <t>070605</t>
+  </si>
+  <si>
+    <t>070606</t>
+  </si>
+  <si>
+    <t>070607</t>
+  </si>
+  <si>
+    <t>070608</t>
+  </si>
+  <si>
+    <t>070609</t>
+  </si>
+  <si>
+    <t>070610</t>
+  </si>
+  <si>
+    <t>070700</t>
+  </si>
+  <si>
+    <t>0802</t>
+  </si>
+  <si>
+    <t>070701</t>
+  </si>
+  <si>
+    <t>070702</t>
+  </si>
+  <si>
+    <t>070703</t>
+  </si>
+  <si>
+    <t>070704</t>
+  </si>
+  <si>
+    <t>070705</t>
+  </si>
+  <si>
+    <t>070706</t>
+  </si>
+  <si>
+    <t>070800</t>
+  </si>
+  <si>
+    <t>070900</t>
+  </si>
+  <si>
+    <t>071000</t>
+  </si>
+  <si>
+    <t>071100</t>
+  </si>
+  <si>
+    <t>060104</t>
+  </si>
+  <si>
+    <t>071200</t>
+  </si>
+  <si>
+    <t>071300</t>
+  </si>
+  <si>
+    <t>071400</t>
+  </si>
+  <si>
+    <t>071500</t>
+  </si>
+  <si>
+    <t>071600</t>
+  </si>
+  <si>
+    <t>071700</t>
+  </si>
+  <si>
+    <t>071800</t>
+  </si>
+  <si>
+    <t>071801</t>
+  </si>
+  <si>
+    <t>071900</t>
+  </si>
+  <si>
+    <t>1604</t>
+  </si>
+  <si>
+    <t>071901</t>
+  </si>
+  <si>
+    <t>071902</t>
+  </si>
+  <si>
+    <t>071903</t>
+  </si>
+  <si>
+    <t>072000</t>
+  </si>
+  <si>
+    <t>072001</t>
+  </si>
+  <si>
+    <t>080000</t>
+  </si>
+  <si>
+    <t>080100</t>
+  </si>
+  <si>
+    <t>080101</t>
+  </si>
+  <si>
+    <t>080102</t>
+  </si>
+  <si>
+    <t>080103</t>
+  </si>
+  <si>
+    <t>080104</t>
+  </si>
+  <si>
+    <t>080105</t>
+  </si>
+  <si>
+    <t>080106</t>
+  </si>
+  <si>
+    <t>080107</t>
+  </si>
+  <si>
+    <t>080108</t>
+  </si>
+  <si>
+    <t>080109</t>
+  </si>
+  <si>
+    <t>0804</t>
+  </si>
+  <si>
+    <t>080110</t>
+  </si>
+  <si>
+    <t>080111</t>
+  </si>
+  <si>
+    <t>080112</t>
+  </si>
+  <si>
+    <t>080113</t>
+  </si>
+  <si>
+    <t>080114</t>
+  </si>
+  <si>
+    <t>080115</t>
+  </si>
+  <si>
+    <t>080116</t>
+  </si>
+  <si>
+    <t>080117</t>
+  </si>
+  <si>
+    <t>080118</t>
+  </si>
+  <si>
+    <t>080119</t>
+  </si>
+  <si>
+    <t>080200</t>
+  </si>
+  <si>
+    <t>080201</t>
+  </si>
+  <si>
+    <t>080202</t>
+  </si>
+  <si>
+    <t>080300</t>
+  </si>
+  <si>
+    <t>080301</t>
+  </si>
+  <si>
+    <t>080302</t>
+  </si>
+  <si>
+    <t>080303</t>
+  </si>
+  <si>
+    <t>080304</t>
+  </si>
+  <si>
+    <t>080305</t>
+  </si>
+  <si>
+    <t>080306</t>
+  </si>
+  <si>
+    <t>080307</t>
+  </si>
+  <si>
+    <t>080308</t>
+  </si>
+  <si>
+    <t>080400</t>
+  </si>
+  <si>
+    <t>080401</t>
+  </si>
+  <si>
+    <t>080402</t>
+  </si>
+  <si>
+    <t>080500</t>
+  </si>
+  <si>
+    <t>080501</t>
+  </si>
+  <si>
+    <t>080502</t>
+  </si>
+  <si>
+    <t>080503</t>
+  </si>
+  <si>
+    <t>080504</t>
+  </si>
+  <si>
+    <t>080505</t>
+  </si>
+  <si>
+    <t>080600</t>
+  </si>
+  <si>
+    <t>080601</t>
+  </si>
+  <si>
+    <t>080602</t>
+  </si>
+  <si>
+    <t>080603</t>
+  </si>
+  <si>
+    <t>090000</t>
+  </si>
+  <si>
+    <t>090100</t>
+  </si>
+  <si>
+    <t>090101</t>
+  </si>
+  <si>
+    <t>090102</t>
+  </si>
+  <si>
+    <t>090200</t>
+  </si>
+  <si>
+    <t>090201</t>
+  </si>
+  <si>
+    <t>090202</t>
+  </si>
+  <si>
+    <t>090203</t>
+  </si>
+  <si>
+    <t>090204</t>
+  </si>
+  <si>
+    <t>090205</t>
+  </si>
+  <si>
+    <t>090206</t>
+  </si>
+  <si>
+    <t>090207</t>
+  </si>
+  <si>
+    <t>090208</t>
+  </si>
+  <si>
+    <t>090209</t>
+  </si>
+  <si>
+    <t>090210</t>
+  </si>
+  <si>
+    <t>090211</t>
+  </si>
+  <si>
+    <t>090300</t>
+  </si>
+  <si>
+    <t>090400</t>
+  </si>
+  <si>
+    <t>070502</t>
+  </si>
+  <si>
+    <t>090500</t>
+  </si>
+  <si>
+    <t>090600</t>
+  </si>
+  <si>
+    <t>090601</t>
+  </si>
+  <si>
+    <t>090602</t>
+  </si>
+  <si>
+    <t>090700</t>
+  </si>
+  <si>
+    <t>090701</t>
+  </si>
+  <si>
+    <t>090702</t>
+  </si>
+  <si>
+    <t>100000</t>
+  </si>
+  <si>
+    <t>100100</t>
+  </si>
+  <si>
+    <t>100101</t>
+  </si>
+  <si>
+    <t>100102</t>
+  </si>
+  <si>
+    <t>100103</t>
+  </si>
+  <si>
+    <t>100104</t>
+  </si>
+  <si>
+    <t>100105</t>
+  </si>
+  <si>
+    <t>100200</t>
+  </si>
+  <si>
+    <t>100201</t>
+  </si>
+  <si>
+    <t>110000</t>
+  </si>
+  <si>
+    <t>110100</t>
+  </si>
+  <si>
+    <t>110101</t>
+  </si>
+  <si>
+    <t>1301</t>
+  </si>
+  <si>
+    <t>110102</t>
+  </si>
+  <si>
+    <t>110103</t>
+  </si>
+  <si>
+    <t>110104</t>
+  </si>
+  <si>
+    <t>110105</t>
+  </si>
+  <si>
+    <t>1303</t>
+  </si>
+  <si>
+    <t>110106</t>
+  </si>
+  <si>
+    <t>110200</t>
+  </si>
+  <si>
+    <t>110201</t>
+  </si>
+  <si>
+    <t>1606</t>
+  </si>
+  <si>
+    <t>110202</t>
+  </si>
+  <si>
+    <t>110203</t>
+  </si>
+  <si>
+    <t>110204</t>
+  </si>
+  <si>
+    <t>110205</t>
+  </si>
+  <si>
+    <t>1602</t>
+  </si>
+  <si>
+    <t>110206</t>
+  </si>
+  <si>
+    <t>110207</t>
+  </si>
+  <si>
+    <t>110208</t>
+  </si>
+  <si>
+    <t>110209</t>
+  </si>
+  <si>
+    <t>120000</t>
+  </si>
+  <si>
+    <t>120100</t>
+  </si>
+  <si>
+    <t>120200</t>
+  </si>
+  <si>
+    <t>120201</t>
+  </si>
+  <si>
+    <t>120202</t>
+  </si>
+  <si>
+    <t>120203</t>
+  </si>
+  <si>
+    <t>120300</t>
+  </si>
+  <si>
+    <t>120301</t>
+  </si>
+  <si>
+    <t>120302</t>
+  </si>
+  <si>
+    <t>120303</t>
+  </si>
+  <si>
+    <t>120304</t>
+  </si>
+  <si>
+    <t>130000</t>
+  </si>
+  <si>
+    <t>130100</t>
+  </si>
+  <si>
+    <t>0701</t>
+  </si>
+  <si>
+    <t>130101</t>
+  </si>
+  <si>
+    <t>130102</t>
+  </si>
+  <si>
+    <t>130103</t>
+  </si>
+  <si>
+    <t>130104</t>
+  </si>
+  <si>
+    <t>130105</t>
+  </si>
+  <si>
+    <t>130106</t>
+  </si>
+  <si>
+    <t>130107</t>
+  </si>
+  <si>
+    <t>130200</t>
+  </si>
+  <si>
+    <t>0708</t>
+  </si>
+  <si>
+    <t>130201</t>
+  </si>
+  <si>
+    <t>130202</t>
+  </si>
+  <si>
+    <t>130300</t>
+  </si>
+  <si>
+    <t>130400</t>
+  </si>
+  <si>
+    <t>130401</t>
+  </si>
+  <si>
+    <t>130402</t>
+  </si>
+  <si>
+    <t>130403</t>
+  </si>
+  <si>
+    <t>130404</t>
+  </si>
+  <si>
+    <t>130405</t>
+  </si>
+  <si>
+    <t>130406</t>
+  </si>
+  <si>
+    <t>130407</t>
+  </si>
+  <si>
+    <t>130408</t>
+  </si>
+  <si>
+    <t>130409</t>
+  </si>
+  <si>
+    <t>130500</t>
+  </si>
+  <si>
+    <t>130501</t>
+  </si>
+  <si>
+    <t>130502</t>
+  </si>
+  <si>
+    <t>130503</t>
+  </si>
+  <si>
+    <t>130504</t>
+  </si>
+  <si>
+    <t>130505</t>
+  </si>
+  <si>
+    <t>130506</t>
+  </si>
+  <si>
+    <t>130600</t>
+  </si>
+  <si>
+    <t>130601</t>
+  </si>
+  <si>
+    <t>130602</t>
+  </si>
+  <si>
+    <t>130603</t>
+  </si>
+  <si>
+    <t>130604</t>
+  </si>
+  <si>
+    <t>130605</t>
+  </si>
+  <si>
+    <t>130606</t>
+  </si>
+  <si>
+    <t>130700</t>
+  </si>
+  <si>
+    <t>130701</t>
+  </si>
+  <si>
+    <t>130702</t>
+  </si>
+  <si>
+    <t>130703</t>
+  </si>
+  <si>
+    <t>140000</t>
+  </si>
+  <si>
+    <t>140100</t>
+  </si>
+  <si>
+    <t>140101</t>
+  </si>
+  <si>
+    <t>140102</t>
+  </si>
+  <si>
+    <t>140200</t>
+  </si>
+  <si>
+    <t>140201</t>
+  </si>
+  <si>
+    <t>140300</t>
+  </si>
+  <si>
+    <t>140400</t>
+  </si>
+  <si>
+    <t>140500</t>
+  </si>
+  <si>
+    <t>140600</t>
+  </si>
+  <si>
+    <t>140700</t>
+  </si>
+  <si>
+    <t>140800</t>
+  </si>
+  <si>
+    <t>140900</t>
+  </si>
+  <si>
+    <t>141000</t>
+  </si>
+  <si>
+    <t>141100</t>
+  </si>
+  <si>
+    <t>141101</t>
+  </si>
+  <si>
+    <t>1207</t>
+  </si>
+  <si>
+    <t>141102</t>
+  </si>
+  <si>
+    <t>141103</t>
+  </si>
+  <si>
+    <t>141104</t>
+  </si>
+  <si>
+    <t>141105</t>
+  </si>
+  <si>
+    <t>141200</t>
+  </si>
+  <si>
+    <t>141201</t>
+  </si>
+  <si>
+    <t>141202</t>
+  </si>
+  <si>
+    <t>141203</t>
+  </si>
+  <si>
+    <t>141204</t>
+  </si>
+  <si>
+    <t>141205</t>
+  </si>
+  <si>
+    <t>141206</t>
+  </si>
+  <si>
+    <t>141207</t>
+  </si>
+  <si>
+    <t>141300</t>
+  </si>
+  <si>
+    <t>0707</t>
+  </si>
+  <si>
+    <t>141400</t>
+  </si>
+  <si>
+    <t>141500</t>
+  </si>
+  <si>
+    <t>1107</t>
+  </si>
+  <si>
+    <t>150000</t>
+  </si>
+  <si>
+    <t>150100</t>
+  </si>
+  <si>
+    <t>1504</t>
+  </si>
+  <si>
+    <t>150101</t>
+  </si>
+  <si>
+    <t>150102</t>
+  </si>
+  <si>
+    <t>150104</t>
+  </si>
+  <si>
+    <t>150105</t>
+  </si>
+  <si>
+    <t>150106</t>
+  </si>
+  <si>
+    <t>150107</t>
+  </si>
+  <si>
+    <t>150200</t>
+  </si>
+  <si>
+    <t>1104</t>
+  </si>
+  <si>
+    <t>150201</t>
+  </si>
+  <si>
+    <t>150202</t>
+  </si>
+  <si>
+    <t>150203</t>
+  </si>
+  <si>
+    <t>150204</t>
+  </si>
+  <si>
+    <t>150205</t>
+  </si>
+  <si>
+    <t>150206</t>
+  </si>
+  <si>
+    <t>150207</t>
+  </si>
+  <si>
+    <t>150208</t>
+  </si>
+  <si>
+    <t>150209</t>
+  </si>
+  <si>
+    <t>150210</t>
+  </si>
+  <si>
+    <t>150300</t>
+  </si>
+  <si>
+    <t>150301</t>
+  </si>
+  <si>
+    <t>150302</t>
+  </si>
+  <si>
+    <t>150303</t>
+  </si>
+  <si>
+    <t>150304</t>
+  </si>
+  <si>
+    <t>150400</t>
+  </si>
+  <si>
+    <t>150500</t>
+  </si>
+  <si>
+    <t>1103</t>
+  </si>
+  <si>
+    <t>150501</t>
+  </si>
+  <si>
+    <t>150600</t>
+  </si>
+  <si>
+    <t>150700</t>
+  </si>
+  <si>
+    <t>150701</t>
+  </si>
+  <si>
+    <t>150702</t>
+  </si>
+  <si>
+    <t>150703</t>
+  </si>
+  <si>
+    <t>150800</t>
+  </si>
+  <si>
+    <t>150900</t>
+  </si>
+  <si>
+    <t>150903</t>
+  </si>
+  <si>
+    <t>110502</t>
+  </si>
+  <si>
+    <t>150904</t>
+  </si>
+  <si>
+    <t>150905</t>
+  </si>
+  <si>
+    <t>150906</t>
+  </si>
+  <si>
+    <t>1101</t>
+  </si>
+  <si>
+    <t>150907</t>
+  </si>
+  <si>
+    <t>150908</t>
+  </si>
+  <si>
+    <t>150909</t>
+  </si>
+  <si>
+    <t>151000</t>
+  </si>
+  <si>
+    <t>151100</t>
+  </si>
+  <si>
+    <t>110501</t>
+  </si>
+  <si>
+    <t>151200</t>
+  </si>
+  <si>
+    <t>151300</t>
+  </si>
+  <si>
+    <t>160000</t>
+  </si>
+  <si>
+    <t>160100</t>
+  </si>
+  <si>
+    <t>160101</t>
+  </si>
+  <si>
+    <t>160102</t>
+  </si>
+  <si>
+    <t>160103</t>
+  </si>
+  <si>
+    <t>160104</t>
+  </si>
+  <si>
+    <t>160105</t>
+  </si>
+  <si>
+    <t>160106</t>
+  </si>
+  <si>
+    <t>160107</t>
+  </si>
+  <si>
+    <t>160108</t>
+  </si>
+  <si>
+    <t>160109</t>
+  </si>
+  <si>
+    <t>160110</t>
+  </si>
+  <si>
+    <t>160111</t>
+  </si>
+  <si>
+    <t>160112</t>
+  </si>
+  <si>
+    <t>160113</t>
+  </si>
+  <si>
+    <t>160114</t>
+  </si>
+  <si>
+    <t>160115</t>
+  </si>
+  <si>
+    <t>160117</t>
+  </si>
+  <si>
+    <t>160118</t>
+  </si>
+  <si>
+    <t>160119</t>
+  </si>
+  <si>
+    <t>160120</t>
+  </si>
+  <si>
+    <t>160121</t>
+  </si>
+  <si>
+    <t>160122</t>
+  </si>
+  <si>
+    <t>160123</t>
+  </si>
+  <si>
+    <t>160124</t>
+  </si>
+  <si>
+    <t>160125</t>
+  </si>
+  <si>
+    <t>160126</t>
+  </si>
+  <si>
+    <t>160127</t>
+  </si>
+  <si>
+    <t>160128</t>
+  </si>
+  <si>
+    <t>160129</t>
+  </si>
+  <si>
+    <t>160130</t>
+  </si>
+  <si>
+    <t>160131</t>
+  </si>
+  <si>
+    <t>160132</t>
+  </si>
+  <si>
+    <t>160133</t>
+  </si>
+  <si>
+    <t>160134</t>
+  </si>
+  <si>
+    <t>160135</t>
+  </si>
+  <si>
+    <t>160136</t>
+  </si>
+  <si>
+    <t>160137</t>
+  </si>
+  <si>
+    <t>160138</t>
+  </si>
+  <si>
+    <t>160139</t>
+  </si>
+  <si>
+    <t>160140</t>
+  </si>
+  <si>
+    <t>160141</t>
+  </si>
+  <si>
+    <t>160142</t>
+  </si>
+  <si>
+    <t>160143</t>
+  </si>
+  <si>
+    <t>160144</t>
+  </si>
+  <si>
+    <t>160145</t>
+  </si>
+  <si>
+    <t>160146</t>
+  </si>
+  <si>
+    <t>160147</t>
+  </si>
+  <si>
+    <t>160148</t>
+  </si>
+  <si>
+    <t>160149</t>
+  </si>
+  <si>
+    <t>160150</t>
+  </si>
+  <si>
+    <t>160151</t>
+  </si>
+  <si>
+    <t>160152</t>
+  </si>
+  <si>
+    <t>160200</t>
+  </si>
+  <si>
+    <t>160300</t>
+  </si>
+  <si>
+    <t>160301</t>
+  </si>
+  <si>
+    <t>160302</t>
+  </si>
+  <si>
+    <t>160303</t>
+  </si>
+  <si>
+    <t>160304</t>
+  </si>
+  <si>
+    <t>160305</t>
+  </si>
+  <si>
+    <t>160306</t>
+  </si>
+  <si>
+    <t>160307</t>
+  </si>
+  <si>
+    <t>160308</t>
+  </si>
+  <si>
+    <t>160309</t>
+  </si>
+  <si>
+    <t>160310</t>
+  </si>
+  <si>
+    <t>160311</t>
+  </si>
+  <si>
+    <t>160312</t>
+  </si>
+  <si>
+    <t>160314</t>
+  </si>
+  <si>
+    <t>160315</t>
+  </si>
+  <si>
+    <t>160316</t>
+  </si>
+  <si>
+    <t>160317</t>
+  </si>
+  <si>
+    <t>160318</t>
+  </si>
+  <si>
+    <t>160319</t>
+  </si>
+  <si>
+    <t>160320</t>
+  </si>
+  <si>
+    <t>160321</t>
+  </si>
+  <si>
+    <t>160322</t>
+  </si>
+  <si>
+    <t>160323</t>
+  </si>
+  <si>
+    <t>160324</t>
+  </si>
+  <si>
+    <t>160325</t>
+  </si>
+  <si>
+    <t>160326</t>
+  </si>
+  <si>
+    <t>160327</t>
+  </si>
+  <si>
+    <t>160328</t>
+  </si>
+  <si>
+    <t>160329</t>
+  </si>
+  <si>
+    <t>160330</t>
+  </si>
+  <si>
+    <t>160331</t>
+  </si>
+  <si>
+    <t>160332</t>
+  </si>
+  <si>
+    <t>160333</t>
+  </si>
+  <si>
+    <t>160334</t>
+  </si>
+  <si>
+    <t>160335</t>
+  </si>
+  <si>
+    <t>160336</t>
+  </si>
+  <si>
+    <t>160337</t>
+  </si>
+  <si>
+    <t>160338</t>
+  </si>
+  <si>
+    <t>160339</t>
+  </si>
+  <si>
+    <t>160340</t>
+  </si>
+  <si>
+    <t>160341</t>
+  </si>
+  <si>
+    <t>160342</t>
+  </si>
+  <si>
+    <t>160343</t>
+  </si>
+  <si>
+    <t>160344</t>
+  </si>
+  <si>
+    <t>160345</t>
+  </si>
+  <si>
+    <t>160346</t>
+  </si>
+  <si>
+    <t>160347</t>
+  </si>
+  <si>
+    <t>160348</t>
+  </si>
+  <si>
+    <t>160349</t>
+  </si>
+  <si>
+    <t>160400</t>
+  </si>
+  <si>
+    <t>160401</t>
+  </si>
+  <si>
+    <t>160402</t>
+  </si>
+  <si>
+    <t>160403</t>
+  </si>
+  <si>
+    <t>160404</t>
+  </si>
+  <si>
+    <t>160405</t>
+  </si>
+  <si>
+    <t>160406</t>
+  </si>
+  <si>
+    <t>160407</t>
+  </si>
+  <si>
+    <t>160408</t>
+  </si>
+  <si>
+    <t>160500</t>
+  </si>
+  <si>
+    <t>160501</t>
+  </si>
+  <si>
+    <t>160600</t>
+  </si>
+  <si>
+    <t>170000</t>
+  </si>
+  <si>
+    <t>170100</t>
+  </si>
+  <si>
+    <t>170200</t>
+  </si>
+  <si>
+    <t>170201</t>
+  </si>
+  <si>
+    <t>170202</t>
+  </si>
+  <si>
+    <t>170203</t>
+  </si>
+  <si>
+    <t>170204</t>
+  </si>
+  <si>
+    <t>170205</t>
+  </si>
+  <si>
+    <t>170206</t>
+  </si>
+  <si>
+    <t>170207</t>
+  </si>
+  <si>
+    <t>170208</t>
+  </si>
+  <si>
+    <t>170209</t>
+  </si>
+  <si>
+    <t>170300</t>
+  </si>
+  <si>
+    <t>170400</t>
+  </si>
+  <si>
+    <t>170401</t>
+  </si>
+  <si>
+    <t>0501</t>
+  </si>
+  <si>
+    <t>170402</t>
+  </si>
+  <si>
+    <t>170403</t>
+  </si>
+  <si>
+    <t>170404</t>
+  </si>
+  <si>
+    <t>170405</t>
+  </si>
+  <si>
+    <t>170406</t>
+  </si>
+  <si>
+    <t>170407</t>
+  </si>
+  <si>
+    <t>0201</t>
+  </si>
+  <si>
+    <t>170408</t>
+  </si>
+  <si>
+    <t>0204</t>
+  </si>
+  <si>
+    <t>180000</t>
+  </si>
+  <si>
+    <t>180100</t>
+  </si>
+  <si>
+    <t>180101</t>
+  </si>
+  <si>
+    <t>180102</t>
+  </si>
+  <si>
+    <t>180103</t>
+  </si>
+  <si>
+    <t>1501</t>
+  </si>
+  <si>
+    <t>180104</t>
+  </si>
+  <si>
+    <t>180200</t>
+  </si>
+  <si>
+    <t>1502</t>
+  </si>
+  <si>
+    <t>180201</t>
+  </si>
+  <si>
+    <t>180202</t>
+  </si>
+  <si>
+    <t>180203</t>
+  </si>
+  <si>
+    <t>180300</t>
+  </si>
+  <si>
+    <t>180301</t>
+  </si>
+  <si>
+    <t>180302</t>
+  </si>
+  <si>
+    <t>180400</t>
+  </si>
+  <si>
+    <t>180500</t>
+  </si>
+  <si>
+    <t>190000</t>
+  </si>
+  <si>
+    <t>190100</t>
+  </si>
+  <si>
+    <t>190101</t>
+  </si>
+  <si>
+    <t>190102</t>
+  </si>
+  <si>
+    <t>190103</t>
+  </si>
+  <si>
+    <t>190104</t>
+  </si>
+  <si>
+    <t>190105</t>
+  </si>
+  <si>
+    <t>190106</t>
+  </si>
+  <si>
+    <t>190107</t>
+  </si>
+  <si>
+    <t>190108</t>
+  </si>
+  <si>
+    <t>190109</t>
+  </si>
+  <si>
+    <t>190200</t>
+  </si>
+  <si>
+    <t>190201</t>
+  </si>
+  <si>
+    <t>190202</t>
+  </si>
+  <si>
+    <t>190203</t>
+  </si>
+  <si>
+    <t>190204</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>190205</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>190300</t>
+  </si>
+  <si>
+    <t>190301</t>
+  </si>
+  <si>
+    <t>190302</t>
+  </si>
+  <si>
+    <t>190303</t>
+  </si>
+  <si>
+    <t>190304</t>
+  </si>
+  <si>
+    <t>190305</t>
+  </si>
+  <si>
+    <t>190306</t>
+  </si>
+  <si>
+    <t>190307</t>
+  </si>
+  <si>
+    <t>190308</t>
+  </si>
+  <si>
+    <t>190309</t>
+  </si>
+  <si>
+    <t>190310</t>
+  </si>
+  <si>
+    <t>190311</t>
+  </si>
+  <si>
+    <t>190400</t>
+  </si>
+  <si>
+    <t>190401</t>
+  </si>
+  <si>
+    <t>190402</t>
+  </si>
+  <si>
+    <t>190403</t>
+  </si>
+  <si>
+    <t>190500</t>
+  </si>
+  <si>
+    <t>190600</t>
+  </si>
+  <si>
+    <t>190700</t>
+  </si>
+  <si>
+    <t>200000</t>
+  </si>
+  <si>
+    <t>200100</t>
+  </si>
+  <si>
+    <t>200200</t>
+  </si>
+  <si>
+    <t>200300</t>
+  </si>
+  <si>
+    <t>200301</t>
+  </si>
+  <si>
+    <t>200302</t>
+  </si>
+  <si>
+    <t>200303</t>
+  </si>
+  <si>
+    <t>200304</t>
+  </si>
+  <si>
+    <t>200400</t>
+  </si>
+  <si>
+    <t>220000</t>
+  </si>
+  <si>
+    <t>220100</t>
+  </si>
+  <si>
+    <t>220101</t>
+  </si>
+  <si>
+    <t>220102</t>
+  </si>
+  <si>
+    <t>220103</t>
+  </si>
+  <si>
+    <t>220104</t>
+  </si>
+  <si>
+    <t>220105</t>
+  </si>
+  <si>
+    <t>220106</t>
+  </si>
+  <si>
+    <t>220107</t>
+  </si>
+  <si>
+    <t>220200</t>
+  </si>
+  <si>
+    <t>220201</t>
+  </si>
+  <si>
+    <t>220202</t>
+  </si>
+  <si>
+    <t>220203</t>
+  </si>
+  <si>
+    <t>220204</t>
+  </si>
+  <si>
+    <t>220205</t>
+  </si>
+  <si>
+    <t>970000</t>
+  </si>
+  <si>
+    <t>990000</t>
+  </si>
+  <si>
+    <t>991000</t>
+  </si>
+  <si>
+    <t>991001</t>
+  </si>
+  <si>
+    <t>991400</t>
+  </si>
+  <si>
+    <t>991401</t>
+  </si>
+  <si>
+    <t>991500</t>
+  </si>
+  <si>
+    <t>070501</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>070500</t>
-  </si>
-  <si>
-    <t>070501</t>
-  </si>
-  <si>
-    <t>070600</t>
-  </si>
-  <si>
-    <t>070601</t>
-  </si>
-  <si>
-    <t>070603</t>
-  </si>
-  <si>
-    <t>070604</t>
-  </si>
-  <si>
-    <t>070605</t>
-  </si>
-  <si>
-    <t>070606</t>
-  </si>
-  <si>
-    <t>070607</t>
-  </si>
-  <si>
-    <t>070608</t>
-  </si>
-  <si>
-    <t>070609</t>
-  </si>
-  <si>
-    <t>070610</t>
-  </si>
-  <si>
-    <t>070700</t>
-  </si>
-  <si>
-    <t>0802</t>
-  </si>
-  <si>
-    <t>070701</t>
-  </si>
-  <si>
-    <t>070702</t>
-  </si>
-  <si>
-    <t>070703</t>
-  </si>
-  <si>
-    <t>070704</t>
-  </si>
-  <si>
-    <t>070705</t>
-  </si>
-  <si>
-    <t>070706</t>
-  </si>
-  <si>
-    <t>070800</t>
-  </si>
-  <si>
-    <t>070900</t>
-  </si>
-  <si>
-    <t>071000</t>
-  </si>
-  <si>
-    <t>071100</t>
-  </si>
-  <si>
-    <t>060104</t>
-  </si>
-  <si>
-    <t>071200</t>
-  </si>
-  <si>
-    <t>071300</t>
-  </si>
-  <si>
-    <t>071400</t>
-  </si>
-  <si>
-    <t>071500</t>
-  </si>
-  <si>
-    <t>071600</t>
-  </si>
-  <si>
-    <t>071700</t>
-  </si>
-  <si>
-    <t>071800</t>
-  </si>
-  <si>
-    <t>071801</t>
-  </si>
-  <si>
-    <t>071900</t>
-  </si>
-  <si>
-    <t>1604</t>
-  </si>
-  <si>
-    <t>071901</t>
-  </si>
-  <si>
-    <t>071902</t>
-  </si>
-  <si>
-    <t>071903</t>
-  </si>
-  <si>
-    <t>072000</t>
-  </si>
-  <si>
-    <t>072001</t>
-  </si>
-  <si>
-    <t>080000</t>
-  </si>
-  <si>
-    <t>080100</t>
-  </si>
-  <si>
-    <t>080101</t>
-  </si>
-  <si>
-    <t>080102</t>
-  </si>
-  <si>
-    <t>080103</t>
-  </si>
-  <si>
-    <t>080104</t>
-  </si>
-  <si>
-    <t>080105</t>
-  </si>
-  <si>
-    <t>080106</t>
-  </si>
-  <si>
-    <t>080107</t>
-  </si>
-  <si>
-    <t>080108</t>
-  </si>
-  <si>
-    <t>080109</t>
-  </si>
-  <si>
-    <t>0804</t>
-  </si>
-  <si>
-    <t>080110</t>
-  </si>
-  <si>
-    <t>080111</t>
-  </si>
-  <si>
-    <t>080112</t>
-  </si>
-  <si>
-    <t>080113</t>
-  </si>
-  <si>
-    <t>080114</t>
-  </si>
-  <si>
-    <t>080115</t>
-  </si>
-  <si>
-    <t>080116</t>
-  </si>
-  <si>
-    <t>080117</t>
-  </si>
-  <si>
-    <t>080118</t>
-  </si>
-  <si>
-    <t>080119</t>
-  </si>
-  <si>
-    <t>080200</t>
-  </si>
-  <si>
-    <t>080201</t>
-  </si>
-  <si>
-    <t>080202</t>
-  </si>
-  <si>
-    <t>080300</t>
-  </si>
-  <si>
-    <t>080301</t>
-  </si>
-  <si>
-    <t>080302</t>
-  </si>
-  <si>
-    <t>080303</t>
-  </si>
-  <si>
-    <t>080304</t>
-  </si>
-  <si>
-    <t>080305</t>
-  </si>
-  <si>
-    <t>080306</t>
-  </si>
-  <si>
-    <t>080307</t>
-  </si>
-  <si>
-    <t>080308</t>
-  </si>
-  <si>
-    <t>080400</t>
-  </si>
-  <si>
-    <t>080401</t>
-  </si>
-  <si>
-    <t>080402</t>
-  </si>
-  <si>
-    <t>080500</t>
-  </si>
-  <si>
-    <t>080501</t>
-  </si>
-  <si>
-    <t>080502</t>
-  </si>
-  <si>
-    <t>080503</t>
-  </si>
-  <si>
-    <t>080504</t>
-  </si>
-  <si>
-    <t>080505</t>
-  </si>
-  <si>
-    <t>080600</t>
-  </si>
-  <si>
-    <t>080601</t>
-  </si>
-  <si>
-    <t>080602</t>
-  </si>
-  <si>
-    <t>080603</t>
-  </si>
-  <si>
-    <t>090000</t>
-  </si>
-  <si>
-    <t>090100</t>
-  </si>
-  <si>
-    <t>090101</t>
-  </si>
-  <si>
-    <t>090102</t>
-  </si>
-  <si>
-    <t>090200</t>
-  </si>
-  <si>
-    <t>090201</t>
-  </si>
-  <si>
-    <t>090202</t>
-  </si>
-  <si>
-    <t>090203</t>
-  </si>
-  <si>
-    <t>090204</t>
-  </si>
-  <si>
-    <t>090205</t>
-  </si>
-  <si>
-    <t>090206</t>
-  </si>
-  <si>
-    <t>090207</t>
-  </si>
-  <si>
-    <t>090208</t>
-  </si>
-  <si>
-    <t>090209</t>
-  </si>
-  <si>
-    <t>090210</t>
-  </si>
-  <si>
-    <t>090211</t>
-  </si>
-  <si>
-    <t>090300</t>
-  </si>
-  <si>
-    <t>090400</t>
-  </si>
-  <si>
-    <t>070502</t>
-  </si>
-  <si>
-    <t>090500</t>
-  </si>
-  <si>
-    <t>090600</t>
-  </si>
-  <si>
-    <t>090601</t>
-  </si>
-  <si>
-    <t>090602</t>
-  </si>
-  <si>
-    <t>090700</t>
-  </si>
-  <si>
-    <t>090701</t>
-  </si>
-  <si>
-    <t>090702</t>
-  </si>
-  <si>
-    <t>100000</t>
-  </si>
-  <si>
-    <t>100100</t>
-  </si>
-  <si>
-    <t>100101</t>
-  </si>
-  <si>
-    <t>100102</t>
-  </si>
-  <si>
-    <t>100103</t>
-  </si>
-  <si>
-    <t>100104</t>
-  </si>
-  <si>
-    <t>100105</t>
-  </si>
-  <si>
-    <t>100200</t>
-  </si>
-  <si>
-    <t>100201</t>
-  </si>
-  <si>
-    <t>110000</t>
-  </si>
-  <si>
-    <t>110100</t>
-  </si>
-  <si>
-    <t>110101</t>
-  </si>
-  <si>
-    <t>1301</t>
-  </si>
-  <si>
-    <t>110102</t>
-  </si>
-  <si>
-    <t>110103</t>
-  </si>
-  <si>
-    <t>110104</t>
-  </si>
-  <si>
-    <t>110105</t>
-  </si>
-  <si>
-    <t>1303</t>
-  </si>
-  <si>
-    <t>110106</t>
-  </si>
-  <si>
-    <t>110200</t>
-  </si>
-  <si>
-    <t>110201</t>
-  </si>
-  <si>
-    <t>1606</t>
-  </si>
-  <si>
-    <t>110202</t>
-  </si>
-  <si>
-    <t>110203</t>
-  </si>
-  <si>
-    <t>110204</t>
-  </si>
-  <si>
-    <t>110205</t>
-  </si>
-  <si>
-    <t>1602</t>
-  </si>
-  <si>
-    <t>110206</t>
-  </si>
-  <si>
-    <t>110207</t>
-  </si>
-  <si>
-    <t>110208</t>
-  </si>
-  <si>
-    <t>110209</t>
-  </si>
-  <si>
-    <t>120000</t>
-  </si>
-  <si>
-    <t>120100</t>
-  </si>
-  <si>
-    <t>120200</t>
-  </si>
-  <si>
-    <t>120201</t>
-  </si>
-  <si>
-    <t>120202</t>
-  </si>
-  <si>
-    <t>120203</t>
-  </si>
-  <si>
-    <t>120300</t>
-  </si>
-  <si>
-    <t>120301</t>
-  </si>
-  <si>
-    <t>120302</t>
-  </si>
-  <si>
-    <t>120303</t>
-  </si>
-  <si>
-    <t>120304</t>
-  </si>
-  <si>
-    <t>130000</t>
-  </si>
-  <si>
-    <t>130100</t>
-  </si>
-  <si>
-    <t>0701</t>
-  </si>
-  <si>
-    <t>130101</t>
-  </si>
-  <si>
-    <t>130102</t>
-  </si>
-  <si>
-    <t>130103</t>
-  </si>
-  <si>
-    <t>130104</t>
-  </si>
-  <si>
-    <t>130105</t>
-  </si>
-  <si>
-    <t>130106</t>
-  </si>
-  <si>
-    <t>130107</t>
-  </si>
-  <si>
-    <t>130200</t>
-  </si>
-  <si>
-    <t>0708</t>
-  </si>
-  <si>
-    <t>130201</t>
-  </si>
-  <si>
-    <t>130202</t>
-  </si>
-  <si>
-    <t>130300</t>
-  </si>
-  <si>
-    <t>130400</t>
-  </si>
-  <si>
-    <t>130401</t>
-  </si>
-  <si>
-    <t>130402</t>
-  </si>
-  <si>
-    <t>130403</t>
-  </si>
-  <si>
-    <t>130404</t>
-  </si>
-  <si>
-    <t>130405</t>
-  </si>
-  <si>
-    <t>130406</t>
-  </si>
-  <si>
-    <t>130407</t>
-  </si>
-  <si>
-    <t>130408</t>
-  </si>
-  <si>
-    <t>130409</t>
-  </si>
-  <si>
-    <t>130500</t>
-  </si>
-  <si>
-    <t>130501</t>
-  </si>
-  <si>
-    <t>130502</t>
-  </si>
-  <si>
-    <t>130503</t>
-  </si>
-  <si>
-    <t>130504</t>
-  </si>
-  <si>
-    <t>130505</t>
-  </si>
-  <si>
-    <t>130506</t>
-  </si>
-  <si>
-    <t>130600</t>
-  </si>
-  <si>
-    <t>130601</t>
-  </si>
-  <si>
-    <t>130602</t>
-  </si>
-  <si>
-    <t>130603</t>
-  </si>
-  <si>
-    <t>130604</t>
-  </si>
-  <si>
-    <t>130605</t>
-  </si>
-  <si>
-    <t>130606</t>
-  </si>
-  <si>
-    <t>130700</t>
-  </si>
-  <si>
-    <t>130701</t>
-  </si>
-  <si>
-    <t>130702</t>
-  </si>
-  <si>
-    <t>130703</t>
-  </si>
-  <si>
-    <t>140000</t>
-  </si>
-  <si>
-    <t>140100</t>
-  </si>
-  <si>
-    <t>140101</t>
-  </si>
-  <si>
-    <t>140102</t>
-  </si>
-  <si>
-    <t>140200</t>
-  </si>
-  <si>
-    <t>140201</t>
-  </si>
-  <si>
-    <t>140300</t>
-  </si>
-  <si>
-    <t>140400</t>
-  </si>
-  <si>
-    <t>140500</t>
-  </si>
-  <si>
-    <t>140600</t>
-  </si>
-  <si>
-    <t>140700</t>
-  </si>
-  <si>
-    <t>140800</t>
-  </si>
-  <si>
-    <t>140900</t>
-  </si>
-  <si>
-    <t>141000</t>
-  </si>
-  <si>
-    <t>141100</t>
-  </si>
-  <si>
-    <t>141101</t>
-  </si>
-  <si>
-    <t>1207</t>
-  </si>
-  <si>
-    <t>141102</t>
-  </si>
-  <si>
-    <t>141103</t>
-  </si>
-  <si>
-    <t>141104</t>
-  </si>
-  <si>
-    <t>141105</t>
-  </si>
-  <si>
-    <t>141200</t>
-  </si>
-  <si>
-    <t>141201</t>
-  </si>
-  <si>
-    <t>141202</t>
-  </si>
-  <si>
-    <t>141203</t>
-  </si>
-  <si>
-    <t>141204</t>
-  </si>
-  <si>
-    <t>141205</t>
-  </si>
-  <si>
-    <t>141206</t>
-  </si>
-  <si>
-    <t>141207</t>
-  </si>
-  <si>
-    <t>141300</t>
-  </si>
-  <si>
-    <t>0707</t>
-  </si>
-  <si>
-    <t>141400</t>
-  </si>
-  <si>
-    <t>141500</t>
-  </si>
-  <si>
-    <t>1107</t>
-  </si>
-  <si>
-    <t>150000</t>
-  </si>
-  <si>
-    <t>150100</t>
-  </si>
-  <si>
-    <t>1504</t>
-  </si>
-  <si>
-    <t>150101</t>
-  </si>
-  <si>
-    <t>150102</t>
-  </si>
-  <si>
-    <t>150104</t>
-  </si>
-  <si>
-    <t>150105</t>
-  </si>
-  <si>
-    <t>150106</t>
-  </si>
-  <si>
-    <t>150107</t>
-  </si>
-  <si>
-    <t>150200</t>
-  </si>
-  <si>
-    <t>1104</t>
-  </si>
-  <si>
-    <t>150201</t>
-  </si>
-  <si>
-    <t>150202</t>
-  </si>
-  <si>
-    <t>150203</t>
-  </si>
-  <si>
-    <t>150204</t>
-  </si>
-  <si>
-    <t>150205</t>
-  </si>
-  <si>
-    <t>150206</t>
-  </si>
-  <si>
-    <t>150207</t>
-  </si>
-  <si>
-    <t>150208</t>
-  </si>
-  <si>
-    <t>150209</t>
-  </si>
-  <si>
-    <t>150210</t>
-  </si>
-  <si>
-    <t>150300</t>
-  </si>
-  <si>
-    <t>150301</t>
-  </si>
-  <si>
-    <t>150302</t>
-  </si>
-  <si>
-    <t>150303</t>
-  </si>
-  <si>
-    <t>150304</t>
-  </si>
-  <si>
-    <t>150400</t>
-  </si>
-  <si>
-    <t>150500</t>
-  </si>
-  <si>
-    <t>1103</t>
-  </si>
-  <si>
-    <t>150501</t>
-  </si>
-  <si>
-    <t>150600</t>
-  </si>
-  <si>
-    <t>150700</t>
-  </si>
-  <si>
-    <t>150701</t>
-  </si>
-  <si>
-    <t>150702</t>
-  </si>
-  <si>
-    <t>150703</t>
-  </si>
-  <si>
-    <t>150800</t>
-  </si>
-  <si>
-    <t>150900</t>
-  </si>
-  <si>
-    <t>150903</t>
-  </si>
-  <si>
-    <t>110502</t>
-  </si>
-  <si>
-    <t>150904</t>
-  </si>
-  <si>
-    <t>150905</t>
-  </si>
-  <si>
-    <t>150906</t>
-  </si>
-  <si>
-    <t>1101</t>
-  </si>
-  <si>
-    <t>150907</t>
-  </si>
-  <si>
-    <t>150908</t>
-  </si>
-  <si>
-    <t>150909</t>
-  </si>
-  <si>
-    <t>151000</t>
-  </si>
-  <si>
-    <t>151100</t>
-  </si>
-  <si>
-    <t>110501</t>
-  </si>
-  <si>
-    <t>151200</t>
-  </si>
-  <si>
-    <t>151300</t>
-  </si>
-  <si>
-    <t>160000</t>
-  </si>
-  <si>
-    <t>160100</t>
-  </si>
-  <si>
-    <t>160101</t>
-  </si>
-  <si>
-    <t>160102</t>
-  </si>
-  <si>
-    <t>160103</t>
-  </si>
-  <si>
-    <t>160104</t>
-  </si>
-  <si>
-    <t>160105</t>
-  </si>
-  <si>
-    <t>160106</t>
-  </si>
-  <si>
-    <t>160107</t>
-  </si>
-  <si>
-    <t>160108</t>
-  </si>
-  <si>
-    <t>160109</t>
-  </si>
-  <si>
-    <t>160110</t>
-  </si>
-  <si>
-    <t>160111</t>
-  </si>
-  <si>
-    <t>160112</t>
-  </si>
-  <si>
-    <t>160113</t>
-  </si>
-  <si>
-    <t>160114</t>
-  </si>
-  <si>
-    <t>160115</t>
-  </si>
-  <si>
-    <t>160117</t>
-  </si>
-  <si>
-    <t>160118</t>
-  </si>
-  <si>
-    <t>160119</t>
-  </si>
-  <si>
-    <t>160120</t>
-  </si>
-  <si>
-    <t>160121</t>
-  </si>
-  <si>
-    <t>160122</t>
-  </si>
-  <si>
-    <t>160123</t>
-  </si>
-  <si>
-    <t>160124</t>
-  </si>
-  <si>
-    <t>160125</t>
-  </si>
-  <si>
-    <t>160126</t>
-  </si>
-  <si>
-    <t>160127</t>
-  </si>
-  <si>
-    <t>160128</t>
-  </si>
-  <si>
-    <t>160129</t>
-  </si>
-  <si>
-    <t>160130</t>
-  </si>
-  <si>
-    <t>160131</t>
-  </si>
-  <si>
-    <t>160132</t>
-  </si>
-  <si>
-    <t>160133</t>
-  </si>
-  <si>
-    <t>160134</t>
-  </si>
-  <si>
-    <t>160135</t>
-  </si>
-  <si>
-    <t>160136</t>
-  </si>
-  <si>
-    <t>160137</t>
-  </si>
-  <si>
-    <t>160138</t>
-  </si>
-  <si>
-    <t>160139</t>
-  </si>
-  <si>
-    <t>160140</t>
-  </si>
-  <si>
-    <t>160141</t>
-  </si>
-  <si>
-    <t>160142</t>
-  </si>
-  <si>
-    <t>160143</t>
-  </si>
-  <si>
-    <t>160144</t>
-  </si>
-  <si>
-    <t>160145</t>
-  </si>
-  <si>
-    <t>160146</t>
-  </si>
-  <si>
-    <t>160147</t>
-  </si>
-  <si>
-    <t>160148</t>
-  </si>
-  <si>
-    <t>160149</t>
-  </si>
-  <si>
-    <t>160150</t>
-  </si>
-  <si>
-    <t>160151</t>
-  </si>
-  <si>
-    <t>160152</t>
-  </si>
-  <si>
-    <t>160200</t>
-  </si>
-  <si>
-    <t>160300</t>
-  </si>
-  <si>
-    <t>160301</t>
-  </si>
-  <si>
-    <t>160302</t>
-  </si>
-  <si>
-    <t>160303</t>
-  </si>
-  <si>
-    <t>160304</t>
-  </si>
-  <si>
-    <t>160305</t>
-  </si>
-  <si>
-    <t>160306</t>
-  </si>
-  <si>
-    <t>160307</t>
-  </si>
-  <si>
-    <t>160308</t>
-  </si>
-  <si>
-    <t>160309</t>
-  </si>
-  <si>
-    <t>160310</t>
-  </si>
-  <si>
-    <t>160311</t>
-  </si>
-  <si>
-    <t>160312</t>
-  </si>
-  <si>
-    <t>160314</t>
-  </si>
-  <si>
-    <t>160315</t>
-  </si>
-  <si>
-    <t>160316</t>
-  </si>
-  <si>
-    <t>160317</t>
-  </si>
-  <si>
-    <t>160318</t>
-  </si>
-  <si>
-    <t>160319</t>
-  </si>
-  <si>
-    <t>160320</t>
-  </si>
-  <si>
-    <t>160321</t>
-  </si>
-  <si>
-    <t>160322</t>
-  </si>
-  <si>
-    <t>160323</t>
-  </si>
-  <si>
-    <t>160324</t>
-  </si>
-  <si>
-    <t>160325</t>
-  </si>
-  <si>
-    <t>160326</t>
-  </si>
-  <si>
-    <t>160327</t>
-  </si>
-  <si>
-    <t>160328</t>
-  </si>
-  <si>
-    <t>160329</t>
-  </si>
-  <si>
-    <t>160330</t>
-  </si>
-  <si>
-    <t>160331</t>
-  </si>
-  <si>
-    <t>160332</t>
-  </si>
-  <si>
-    <t>160333</t>
-  </si>
-  <si>
-    <t>160334</t>
-  </si>
-  <si>
-    <t>160335</t>
-  </si>
-  <si>
-    <t>160336</t>
-  </si>
-  <si>
-    <t>160337</t>
-  </si>
-  <si>
-    <t>160338</t>
-  </si>
-  <si>
-    <t>160339</t>
-  </si>
-  <si>
-    <t>160340</t>
-  </si>
-  <si>
-    <t>160341</t>
-  </si>
-  <si>
-    <t>160342</t>
-  </si>
-  <si>
-    <t>160343</t>
-  </si>
-  <si>
-    <t>160344</t>
-  </si>
-  <si>
-    <t>160345</t>
-  </si>
-  <si>
-    <t>160346</t>
-  </si>
-  <si>
-    <t>160347</t>
-  </si>
-  <si>
-    <t>160348</t>
-  </si>
-  <si>
-    <t>160349</t>
-  </si>
-  <si>
-    <t>160400</t>
-  </si>
-  <si>
-    <t>160401</t>
-  </si>
-  <si>
-    <t>160402</t>
-  </si>
-  <si>
-    <t>160403</t>
-  </si>
-  <si>
-    <t>160404</t>
-  </si>
-  <si>
-    <t>160405</t>
-  </si>
-  <si>
-    <t>160406</t>
-  </si>
-  <si>
-    <t>160407</t>
-  </si>
-  <si>
-    <t>160408</t>
-  </si>
-  <si>
-    <t>160500</t>
-  </si>
-  <si>
-    <t>160501</t>
-  </si>
-  <si>
-    <t>160600</t>
-  </si>
-  <si>
-    <t>170000</t>
-  </si>
-  <si>
-    <t>170100</t>
-  </si>
-  <si>
-    <t>170200</t>
-  </si>
-  <si>
-    <t>170201</t>
-  </si>
-  <si>
-    <t>170202</t>
-  </si>
-  <si>
-    <t>170203</t>
-  </si>
-  <si>
-    <t>170204</t>
-  </si>
-  <si>
-    <t>170205</t>
-  </si>
-  <si>
-    <t>170206</t>
-  </si>
-  <si>
-    <t>170207</t>
-  </si>
-  <si>
-    <t>170208</t>
-  </si>
-  <si>
-    <t>170209</t>
-  </si>
-  <si>
-    <t>170300</t>
-  </si>
-  <si>
-    <t>170400</t>
-  </si>
-  <si>
-    <t>170401</t>
-  </si>
-  <si>
-    <t>0501</t>
-  </si>
-  <si>
-    <t>170402</t>
-  </si>
-  <si>
-    <t>170403</t>
-  </si>
-  <si>
-    <t>170404</t>
-  </si>
-  <si>
-    <t>170405</t>
-  </si>
-  <si>
-    <t>170406</t>
-  </si>
-  <si>
-    <t>170407</t>
-  </si>
-  <si>
-    <t>0201</t>
-  </si>
-  <si>
-    <t>170408</t>
-  </si>
-  <si>
-    <t>0204</t>
-  </si>
-  <si>
-    <t>180000</t>
-  </si>
-  <si>
-    <t>180100</t>
-  </si>
-  <si>
-    <t>180101</t>
-  </si>
-  <si>
-    <t>180102</t>
-  </si>
-  <si>
-    <t>180103</t>
-  </si>
-  <si>
-    <t>1501</t>
-  </si>
-  <si>
-    <t>180104</t>
-  </si>
-  <si>
-    <t>180200</t>
-  </si>
-  <si>
-    <t>1502</t>
-  </si>
-  <si>
-    <t>180201</t>
-  </si>
-  <si>
-    <t>180202</t>
-  </si>
-  <si>
-    <t>180203</t>
-  </si>
-  <si>
-    <t>180300</t>
-  </si>
-  <si>
-    <t>180301</t>
-  </si>
-  <si>
-    <t>180302</t>
-  </si>
-  <si>
-    <t>180400</t>
-  </si>
-  <si>
-    <t>180500</t>
-  </si>
-  <si>
-    <t>190000</t>
-  </si>
-  <si>
-    <t>190100</t>
-  </si>
-  <si>
-    <t>190101</t>
-  </si>
-  <si>
-    <t>190102</t>
-  </si>
-  <si>
-    <t>190103</t>
-  </si>
-  <si>
-    <t>190104</t>
-  </si>
-  <si>
-    <t>190105</t>
-  </si>
-  <si>
-    <t>190106</t>
-  </si>
-  <si>
-    <t>190107</t>
-  </si>
-  <si>
-    <t>190108</t>
-  </si>
-  <si>
-    <t>190109</t>
-  </si>
-  <si>
-    <t>190200</t>
-  </si>
-  <si>
-    <t>190201</t>
-  </si>
-  <si>
-    <t>190202</t>
-  </si>
-  <si>
-    <t>190203</t>
-  </si>
-  <si>
-    <t>190204</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>190205</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>190300</t>
-  </si>
-  <si>
-    <t>190301</t>
-  </si>
-  <si>
-    <t>190302</t>
-  </si>
-  <si>
-    <t>190303</t>
-  </si>
-  <si>
-    <t>190304</t>
-  </si>
-  <si>
-    <t>190305</t>
-  </si>
-  <si>
-    <t>190306</t>
-  </si>
-  <si>
-    <t>190307</t>
-  </si>
-  <si>
-    <t>190308</t>
-  </si>
-  <si>
-    <t>190309</t>
-  </si>
-  <si>
-    <t>190310</t>
-  </si>
-  <si>
-    <t>190311</t>
-  </si>
-  <si>
-    <t>190400</t>
-  </si>
-  <si>
-    <t>190401</t>
-  </si>
-  <si>
-    <t>190402</t>
-  </si>
-  <si>
-    <t>190403</t>
-  </si>
-  <si>
-    <t>190500</t>
-  </si>
-  <si>
-    <t>190600</t>
-  </si>
-  <si>
-    <t>190700</t>
-  </si>
-  <si>
-    <t>200000</t>
-  </si>
-  <si>
-    <t>200100</t>
-  </si>
-  <si>
-    <t>200200</t>
-  </si>
-  <si>
-    <t>200300</t>
-  </si>
-  <si>
-    <t>200301</t>
-  </si>
-  <si>
-    <t>200302</t>
-  </si>
-  <si>
-    <t>200303</t>
-  </si>
-  <si>
-    <t>200304</t>
-  </si>
-  <si>
-    <t>200400</t>
-  </si>
-  <si>
-    <t>220000</t>
-  </si>
-  <si>
-    <t>220100</t>
-  </si>
-  <si>
-    <t>220101</t>
-  </si>
-  <si>
-    <t>220102</t>
-  </si>
-  <si>
-    <t>220103</t>
-  </si>
-  <si>
-    <t>220104</t>
-  </si>
-  <si>
-    <t>220105</t>
-  </si>
-  <si>
-    <t>220106</t>
-  </si>
-  <si>
-    <t>220107</t>
-  </si>
-  <si>
-    <t>220200</t>
-  </si>
-  <si>
-    <t>220201</t>
-  </si>
-  <si>
-    <t>220202</t>
-  </si>
-  <si>
-    <t>220203</t>
-  </si>
-  <si>
-    <t>220204</t>
-  </si>
-  <si>
-    <t>220205</t>
-  </si>
-  <si>
-    <t>970000</t>
-  </si>
-  <si>
-    <t>990000</t>
-  </si>
-  <si>
-    <t>991000</t>
-  </si>
-  <si>
-    <t>991001</t>
-  </si>
-  <si>
-    <t>991400</t>
-  </si>
-  <si>
-    <t>991401</t>
-  </si>
-  <si>
-    <t>991500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -5838,8 +5843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1676488C-6AF7-4637-BA62-A26B8CEB3AA1}">
   <dimension ref="A1:C870"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A370" workbookViewId="0">
+      <selection activeCell="A389" sqref="A389"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10119,7 +10124,7 @@
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A389" s="1" t="s">
-        <v>1296</v>
+        <v>1805</v>
       </c>
       <c r="B389" s="1" t="s">
         <v>390</v>
@@ -10130,7 +10135,7 @@
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A390" s="1" t="s">
-        <v>1297</v>
+        <v>1804</v>
       </c>
       <c r="B390" s="1" t="s">
         <v>391</v>
@@ -10141,7 +10146,7 @@
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A391" s="1" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="B391" s="1" t="s">
         <v>392</v>
@@ -10152,7 +10157,7 @@
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A392" s="1" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="B392" s="1" t="s">
         <v>393</v>
@@ -10163,7 +10168,7 @@
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A393" s="1" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="B393" s="1" t="s">
         <v>394</v>
@@ -10174,7 +10179,7 @@
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A394" s="1" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="B394" s="1" t="s">
         <v>395</v>
@@ -10185,7 +10190,7 @@
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A395" s="1" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="B395" s="1" t="s">
         <v>396</v>
@@ -10196,7 +10201,7 @@
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A396" s="1" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="B396" s="1" t="s">
         <v>397</v>
@@ -10207,7 +10212,7 @@
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A397" s="1" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="B397" s="1" t="s">
         <v>398</v>
@@ -10218,7 +10223,7 @@
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A398" s="1" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="B398" s="1" t="s">
         <v>399</v>
@@ -10229,7 +10234,7 @@
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A399" s="1" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="B399" s="1" t="s">
         <v>400</v>
@@ -10240,7 +10245,7 @@
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A400" s="1" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="B400" s="1" t="s">
         <v>401</v>
@@ -10251,95 +10256,95 @@
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A401" s="1" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="B401" s="1" t="s">
         <v>402</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A402" s="1" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="B402" s="1" t="s">
         <v>403</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A403" s="1" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="B403" s="1" t="s">
         <v>404</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A404" s="1" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="B404" s="1" t="s">
         <v>405</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A405" s="1" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="B405" s="1" t="s">
         <v>406</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A406" s="1" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="B406" s="1" t="s">
         <v>407</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A407" s="1" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="B407" s="1" t="s">
         <v>408</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A408" s="1" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="B408" s="1" t="s">
         <v>409</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A409" s="1" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="B409" s="1" t="s">
         <v>410</v>
@@ -10350,7 +10355,7 @@
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A410" s="1" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="B410" s="1" t="s">
         <v>411</v>
@@ -10361,62 +10366,62 @@
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A411" s="1" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="B411" s="1" t="s">
         <v>412</v>
       </c>
       <c r="C411" s="1" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A412" s="1" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="B412" s="1" t="s">
         <v>413</v>
       </c>
       <c r="C412" s="1" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A413" s="1" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="B413" s="1" t="s">
         <v>414</v>
       </c>
       <c r="C413" s="1" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A414" s="1" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="B414" s="1" t="s">
         <v>415</v>
       </c>
       <c r="C414" s="1" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A415" s="1" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="B415" s="1" t="s">
         <v>416</v>
       </c>
       <c r="C415" s="1" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A416" s="1" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="B416" s="1" t="s">
         <v>417</v>
@@ -10427,7 +10432,7 @@
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A417" s="1" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="B417" s="1" t="s">
         <v>418</v>
@@ -10438,95 +10443,95 @@
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A418" s="1" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="B418" s="1" t="s">
         <v>419</v>
       </c>
       <c r="C418" s="1" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A419" s="1" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="B419" s="1" t="s">
         <v>420</v>
       </c>
       <c r="C419" s="1" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A420" s="1" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="B420" s="1" t="s">
         <v>421</v>
       </c>
       <c r="C420" s="1" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A421" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="B421" s="1" t="s">
         <v>422</v>
       </c>
       <c r="C421" s="1" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A422" s="1" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="B422" s="1" t="s">
         <v>423</v>
       </c>
       <c r="C422" s="1" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A423" s="1" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="B423" s="1" t="s">
         <v>424</v>
       </c>
       <c r="C423" s="1" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A424" s="1" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="B424" s="1" t="s">
         <v>425</v>
       </c>
       <c r="C424" s="1" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A425" s="1" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="B425" s="1" t="s">
         <v>426</v>
       </c>
       <c r="C425" s="1" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A426" s="1" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="B426" s="1" t="s">
         <v>427</v>
@@ -10537,7 +10542,7 @@
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A427" s="1" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="B427" s="1" t="s">
         <v>429</v>
@@ -10548,7 +10553,7 @@
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A428" s="1" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="B428" s="1" t="s">
         <v>431</v>
@@ -10559,7 +10564,7 @@
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A429" s="1" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="B429" s="1" t="s">
         <v>432</v>
@@ -10570,7 +10575,7 @@
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A430" s="1" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="B430" s="1" t="s">
         <v>433</v>
@@ -10581,7 +10586,7 @@
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A431" s="1" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="B431" s="1" t="s">
         <v>434</v>
@@ -10592,7 +10597,7 @@
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A432" s="1" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="B432" s="1" t="s">
         <v>435</v>
@@ -10603,7 +10608,7 @@
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A433" s="1" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B433" s="1" t="s">
         <v>436</v>
@@ -10614,7 +10619,7 @@
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A434" s="1" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="B434" s="1" t="s">
         <v>437</v>
@@ -10625,7 +10630,7 @@
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A435" s="1" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="B435" s="1" t="s">
         <v>438</v>
@@ -10636,18 +10641,18 @@
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A436" s="1" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="B436" s="1" t="s">
         <v>439</v>
       </c>
       <c r="C436" s="1" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A437" s="1" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="B437" s="1" t="s">
         <v>440</v>
@@ -10658,7 +10663,7 @@
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A438" s="1" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="B438" s="1" t="s">
         <v>441</v>
@@ -10669,7 +10674,7 @@
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A439" s="1" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="B439" s="1" t="s">
         <v>442</v>
@@ -10680,7 +10685,7 @@
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A440" s="1" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="B440" s="1" t="s">
         <v>443</v>
@@ -10691,7 +10696,7 @@
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A441" s="1" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="B441" s="1" t="s">
         <v>444</v>
@@ -10702,29 +10707,29 @@
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A442" s="1" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="B442" s="1" t="s">
         <v>445</v>
       </c>
       <c r="C442" s="1" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A443" s="1" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="B443" s="1" t="s">
         <v>446</v>
       </c>
       <c r="C443" s="1" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A444" s="1" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="B444" s="1" t="s">
         <v>447</v>
@@ -10735,7 +10740,7 @@
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A445" s="1" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="B445" s="1" t="s">
         <v>448</v>
@@ -10746,7 +10751,7 @@
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A446" s="1" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="B446" s="1" t="s">
         <v>449</v>
@@ -10757,40 +10762,40 @@
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A447" s="1" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="B447" s="1" t="s">
         <v>450</v>
       </c>
       <c r="C447" s="1" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A448" s="1" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="B448" s="1" t="s">
         <v>451</v>
       </c>
       <c r="C448" s="1" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A449" s="1" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="B449" s="1" t="s">
         <v>452</v>
       </c>
       <c r="C449" s="1" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A450" s="1" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="B450" s="1" t="s">
         <v>453</v>
@@ -10801,7 +10806,7 @@
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A451" s="1" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="B451" s="1" t="s">
         <v>454</v>
@@ -10812,7 +10817,7 @@
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A452" s="1" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="B452" s="1" t="s">
         <v>455</v>
@@ -10823,7 +10828,7 @@
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A453" s="1" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="B453" s="1" t="s">
         <v>456</v>
@@ -10834,7 +10839,7 @@
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A454" s="1" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="B454" s="1" t="s">
         <v>457</v>
@@ -10845,7 +10850,7 @@
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A455" s="1" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="B455" s="1" t="s">
         <v>458</v>
@@ -10856,7 +10861,7 @@
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A456" s="1" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="B456" s="1" t="s">
         <v>459</v>
@@ -10867,7 +10872,7 @@
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A457" s="1" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="B457" s="1" t="s">
         <v>460</v>
@@ -10878,7 +10883,7 @@
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A458" s="1" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="B458" s="1" t="s">
         <v>461</v>
@@ -10889,150 +10894,150 @@
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A459" s="1" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="B459" s="1" t="s">
         <v>462</v>
       </c>
       <c r="C459" s="1" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A460" s="1" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="B460" s="1" t="s">
         <v>463</v>
       </c>
       <c r="C460" s="1" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A461" s="1" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="B461" s="1" t="s">
         <v>464</v>
       </c>
       <c r="C461" s="1" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A462" s="1" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="B462" s="1" t="s">
         <v>465</v>
       </c>
       <c r="C462" s="1" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A463" s="1" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="B463" s="1" t="s">
         <v>466</v>
       </c>
       <c r="C463" s="1" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A464" s="1" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="B464" s="1" t="s">
         <v>467</v>
       </c>
       <c r="C464" s="1" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A465" s="1" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="B465" s="1" t="s">
         <v>468</v>
       </c>
       <c r="C465" s="1" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A466" s="1" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="B466" s="1" t="s">
         <v>469</v>
       </c>
       <c r="C466" s="1" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A467" s="1" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="B467" s="1" t="s">
         <v>470</v>
       </c>
       <c r="C467" s="1" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A468" s="1" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="B468" s="1" t="s">
         <v>471</v>
       </c>
       <c r="C468" s="1" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A469" s="1" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="B469" s="1" t="s">
         <v>472</v>
       </c>
       <c r="C469" s="1" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A470" s="1" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="B470" s="1" t="s">
         <v>473</v>
       </c>
       <c r="C470" s="1" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A471" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="B471" s="1" t="s">
         <v>474</v>
       </c>
       <c r="C471" s="1" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A472" s="1" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="B472" s="1" t="s">
         <v>475</v>
@@ -11043,205 +11048,205 @@
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A473" s="1" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="B473" s="1" t="s">
         <v>477</v>
       </c>
       <c r="C473" s="1" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A474" s="1" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="B474" s="1" t="s">
         <v>478</v>
       </c>
       <c r="C474" s="1" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A475" s="1" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="B475" s="1" t="s">
         <v>479</v>
       </c>
       <c r="C475" s="1" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A476" s="1" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="B476" s="1" t="s">
         <v>480</v>
       </c>
       <c r="C476" s="1" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A477" s="1" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="B477" s="1" t="s">
         <v>481</v>
       </c>
       <c r="C477" s="1" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A478" s="1" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="B478" s="1" t="s">
         <v>482</v>
       </c>
       <c r="C478" s="1" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A479" s="1" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="B479" s="1" t="s">
         <v>483</v>
       </c>
       <c r="C479" s="1" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A480" s="1" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="B480" s="1" t="s">
         <v>484</v>
       </c>
       <c r="C480" s="1" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A481" s="1" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="B481" s="1" t="s">
         <v>485</v>
       </c>
       <c r="C481" s="1" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A482" s="1" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="B482" s="1" t="s">
         <v>486</v>
       </c>
       <c r="C482" s="1" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A483" s="1" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="B483" s="1" t="s">
         <v>487</v>
       </c>
       <c r="C483" s="1" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A484" s="1" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="B484" s="1" t="s">
         <v>488</v>
       </c>
       <c r="C484" s="1" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A485" s="1" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="B485" s="1" t="s">
         <v>489</v>
       </c>
       <c r="C485" s="1" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A486" s="1" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="B486" s="1" t="s">
         <v>490</v>
       </c>
       <c r="C486" s="1" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A487" s="1" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="B487" s="1" t="s">
         <v>491</v>
       </c>
       <c r="C487" s="1" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A488" s="1" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="B488" s="1" t="s">
         <v>492</v>
       </c>
       <c r="C488" s="1" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A489" s="1" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="B489" s="1" t="s">
         <v>493</v>
       </c>
       <c r="C489" s="1" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A490" s="1" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="B490" s="1" t="s">
         <v>494</v>
       </c>
       <c r="C490" s="1" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A491" s="1" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="B491" s="1" t="s">
         <v>495</v>
@@ -11252,7 +11257,7 @@
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A492" s="1" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="B492" s="1" t="s">
         <v>496</v>
@@ -11263,7 +11268,7 @@
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A493" s="1" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="B493" s="1" t="s">
         <v>497</v>
@@ -11274,7 +11279,7 @@
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A494" s="1" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="B494" s="1" t="s">
         <v>498</v>
@@ -11285,7 +11290,7 @@
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A495" s="1" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="B495" s="1" t="s">
         <v>499</v>
@@ -11296,7 +11301,7 @@
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A496" s="1" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="B496" s="1" t="s">
         <v>500</v>
@@ -11307,7 +11312,7 @@
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A497" s="1" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="B497" s="1" t="s">
         <v>501</v>
@@ -11318,7 +11323,7 @@
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A498" s="1" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B498" s="1" t="s">
         <v>502</v>
@@ -11329,7 +11334,7 @@
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A499" s="1" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="B499" s="1" t="s">
         <v>503</v>
@@ -11340,7 +11345,7 @@
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A500" s="1" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="B500" s="1" t="s">
         <v>504</v>
@@ -11351,7 +11356,7 @@
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A501" s="1" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="B501" s="1" t="s">
         <v>505</v>
@@ -11362,7 +11367,7 @@
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A502" s="1" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="B502" s="1" t="s">
         <v>506</v>
@@ -11373,7 +11378,7 @@
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A503" s="1" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="B503" s="1" t="s">
         <v>507</v>
@@ -11384,7 +11389,7 @@
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A504" s="1" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="B504" s="1" t="s">
         <v>508</v>
@@ -11395,7 +11400,7 @@
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A505" s="1" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="B505" s="1" t="s">
         <v>509</v>
@@ -11406,7 +11411,7 @@
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A506" s="1" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="B506" s="1" t="s">
         <v>510</v>
@@ -11417,7 +11422,7 @@
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A507" s="1" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="B507" s="1" t="s">
         <v>512</v>
@@ -11428,73 +11433,73 @@
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A508" s="1" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="B508" s="1" t="s">
         <v>514</v>
       </c>
       <c r="C508" s="1" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A509" s="1" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="B509" s="1" t="s">
         <v>515</v>
       </c>
       <c r="C509" s="1" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A510" s="1" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="B510" s="1" t="s">
         <v>516</v>
       </c>
       <c r="C510" s="1" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A511" s="1" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="B511" s="1" t="s">
         <v>517</v>
       </c>
       <c r="C511" s="1" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A512" s="1" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="B512" s="1" t="s">
         <v>518</v>
       </c>
       <c r="C512" s="1" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A513" s="1" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="B513" s="1" t="s">
         <v>519</v>
       </c>
       <c r="C513" s="1" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A514" s="1" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="B514" s="1" t="s">
         <v>520</v>
@@ -11505,40 +11510,40 @@
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A515" s="1" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="B515" s="1" t="s">
         <v>522</v>
       </c>
       <c r="C515" s="1" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A516" s="1" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="B516" s="1" t="s">
         <v>523</v>
       </c>
       <c r="C516" s="1" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A517" s="1" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="B517" s="1" t="s">
         <v>524</v>
       </c>
       <c r="C517" s="1" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A518" s="1" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="B518" s="1" t="s">
         <v>525</v>
@@ -11549,62 +11554,62 @@
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A519" s="1" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="B519" s="1" t="s">
         <v>526</v>
       </c>
       <c r="C519" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A520" s="1" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="B520" s="1" t="s">
         <v>527</v>
       </c>
       <c r="C520" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A521" s="1" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="B521" s="1" t="s">
         <v>528</v>
       </c>
       <c r="C521" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A522" s="1" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="B522" s="1" t="s">
         <v>529</v>
       </c>
       <c r="C522" s="1" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A523" s="1" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="B523" s="1" t="s">
         <v>530</v>
       </c>
       <c r="C523" s="1" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A524" s="1" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="B524" s="1" t="s">
         <v>531</v>
@@ -11615,62 +11620,62 @@
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A525" s="1" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="B525" s="1" t="s">
         <v>533</v>
       </c>
       <c r="C525" s="1" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A526" s="1" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="B526" s="1" t="s">
         <v>534</v>
       </c>
       <c r="C526" s="1" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A527" s="1" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="B527" s="1" t="s">
         <v>535</v>
       </c>
       <c r="C527" s="1" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A528" s="1" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="B528" s="1" t="s">
         <v>536</v>
       </c>
       <c r="C528" s="1" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A529" s="1" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="B529" s="1" t="s">
         <v>537</v>
       </c>
       <c r="C529" s="1" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A530" s="1" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="B530" s="1" t="s">
         <v>538</v>
@@ -11681,7 +11686,7 @@
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A531" s="1" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="B531" s="1" t="s">
         <v>540</v>
@@ -11692,7 +11697,7 @@
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A532" s="1" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="B532" s="1" t="s">
         <v>542</v>
@@ -11703,7 +11708,7 @@
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A533" s="1" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="B533" s="1" t="s">
         <v>543</v>
@@ -11714,18 +11719,18 @@
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A534" s="1" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="B534" s="1" t="s">
         <v>545</v>
       </c>
       <c r="C534" s="1" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A535" s="1" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="B535" s="1" t="s">
         <v>546</v>
@@ -11736,447 +11741,447 @@
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A536" s="1" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="B536" s="1" t="s">
         <v>548</v>
       </c>
       <c r="C536" s="1" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A537" s="1" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="B537" s="1" t="s">
         <v>549</v>
       </c>
       <c r="C537" s="1" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A538" s="1" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="B538" s="1" t="s">
         <v>550</v>
       </c>
       <c r="C538" s="1" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A539" s="1" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="B539" s="1" t="s">
         <v>551</v>
       </c>
       <c r="C539" s="1" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A540" s="1" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="B540" s="1" t="s">
         <v>552</v>
       </c>
       <c r="C540" s="1" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A541" s="1" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="B541" s="1" t="s">
         <v>553</v>
       </c>
       <c r="C541" s="1" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A542" s="1" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="B542" s="1" t="s">
         <v>554</v>
       </c>
       <c r="C542" s="1" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A543" s="1" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="B543" s="1" t="s">
         <v>555</v>
       </c>
       <c r="C543" s="1" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A544" s="1" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="B544" s="1" t="s">
         <v>556</v>
       </c>
       <c r="C544" s="1" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A545" s="1" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="B545" s="1" t="s">
         <v>557</v>
       </c>
       <c r="C545" s="1" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A546" s="1" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="B546" s="1" t="s">
         <v>558</v>
       </c>
       <c r="C546" s="1" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A547" s="1" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="B547" s="1" t="s">
         <v>559</v>
       </c>
       <c r="C547" s="1" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A548" s="1" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="B548" s="1" t="s">
         <v>560</v>
       </c>
       <c r="C548" s="1" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A549" s="1" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="B549" s="1" t="s">
         <v>561</v>
       </c>
       <c r="C549" s="1" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A550" s="1" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="B550" s="1" t="s">
         <v>562</v>
       </c>
       <c r="C550" s="1" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A551" s="1" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="B551" s="1" t="s">
         <v>563</v>
       </c>
       <c r="C551" s="1" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A552" s="1" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="B552" s="1" t="s">
         <v>564</v>
       </c>
       <c r="C552" s="1" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A553" s="1" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="B553" s="1" t="s">
         <v>565</v>
       </c>
       <c r="C553" s="1" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A554" s="1" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="B554" s="1" t="s">
         <v>566</v>
       </c>
       <c r="C554" s="1" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A555" s="1" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="B555" s="1" t="s">
         <v>567</v>
       </c>
       <c r="C555" s="1" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A556" s="1" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="B556" s="1" t="s">
         <v>568</v>
       </c>
       <c r="C556" s="1" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A557" s="1" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="B557" s="1" t="s">
         <v>569</v>
       </c>
       <c r="C557" s="1" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A558" s="1" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="B558" s="1" t="s">
         <v>570</v>
       </c>
       <c r="C558" s="1" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A559" s="1" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="B559" s="1" t="s">
         <v>571</v>
       </c>
       <c r="C559" s="1" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A560" s="1" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="B560" s="1" t="s">
         <v>572</v>
       </c>
       <c r="C560" s="1" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A561" s="1" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="B561" s="1" t="s">
         <v>573</v>
       </c>
       <c r="C561" s="1" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A562" s="1" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="B562" s="1" t="s">
         <v>574</v>
       </c>
       <c r="C562" s="1" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A563" s="1" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="B563" s="1" t="s">
         <v>575</v>
       </c>
       <c r="C563" s="1" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A564" s="1" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="B564" s="1" t="s">
         <v>576</v>
       </c>
       <c r="C564" s="1" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A565" s="1" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="B565" s="1" t="s">
         <v>577</v>
       </c>
       <c r="C565" s="1" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A566" s="1" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="B566" s="1" t="s">
         <v>578</v>
       </c>
       <c r="C566" s="1" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A567" s="1" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="B567" s="1" t="s">
         <v>579</v>
       </c>
       <c r="C567" s="1" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A568" s="1" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="B568" s="1" t="s">
         <v>580</v>
       </c>
       <c r="C568" s="1" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A569" s="1" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="B569" s="1" t="s">
         <v>581</v>
       </c>
       <c r="C569" s="1" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A570" s="1" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="B570" s="1" t="s">
         <v>582</v>
       </c>
       <c r="C570" s="1" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A571" s="1" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="B571" s="1" t="s">
         <v>583</v>
       </c>
       <c r="C571" s="1" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A572" s="1" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="B572" s="1" t="s">
         <v>584</v>
       </c>
       <c r="C572" s="1" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A573" s="1" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="B573" s="1" t="s">
         <v>585</v>
       </c>
       <c r="C573" s="1" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="574" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A574" s="1" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="B574" s="1" t="s">
         <v>586</v>
       </c>
       <c r="C574" s="1" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A575" s="1" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="B575" s="1" t="s">
         <v>587</v>
       </c>
       <c r="C575" s="1" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A576" s="1" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="B576" s="1" t="s">
         <v>588</v>
@@ -12187,7 +12192,7 @@
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A577" s="1" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="B577" s="1" t="s">
         <v>590</v>
@@ -12198,7 +12203,7 @@
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A578" s="1" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B578" s="1" t="s">
         <v>591</v>
@@ -12209,7 +12214,7 @@
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A579" s="1" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="B579" s="1" t="s">
         <v>592</v>
@@ -12220,7 +12225,7 @@
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A580" s="1" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="B580" s="1" t="s">
         <v>593</v>
@@ -12231,7 +12236,7 @@
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A581" s="1" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="B581" s="1" t="s">
         <v>594</v>
@@ -12242,7 +12247,7 @@
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A582" s="1" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="B582" s="1" t="s">
         <v>595</v>
@@ -12253,7 +12258,7 @@
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A583" s="1" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="B583" s="1" t="s">
         <v>596</v>
@@ -12264,7 +12269,7 @@
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A584" s="1" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="B584" s="1" t="s">
         <v>597</v>
@@ -12275,7 +12280,7 @@
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A585" s="1" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="B585" s="1" t="s">
         <v>598</v>
@@ -12286,7 +12291,7 @@
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A586" s="1" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="B586" s="1" t="s">
         <v>599</v>
@@ -12297,7 +12302,7 @@
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A587" s="1" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="B587" s="1" t="s">
         <v>600</v>
@@ -12308,7 +12313,7 @@
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A588" s="1" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="B588" s="1" t="s">
         <v>601</v>
@@ -12319,7 +12324,7 @@
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A589" s="1" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="B589" s="1" t="s">
         <v>602</v>
@@ -12330,7 +12335,7 @@
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A590" s="1" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="B590" s="1" t="s">
         <v>603</v>
@@ -12341,62 +12346,62 @@
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A591" s="1" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="B591" s="1" t="s">
         <v>605</v>
       </c>
       <c r="C591" s="1" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A592" s="1" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="B592" s="1" t="s">
         <v>606</v>
       </c>
       <c r="C592" s="1" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A593" s="1" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="B593" s="1" t="s">
         <v>607</v>
       </c>
       <c r="C593" s="1" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A594" s="1" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="B594" s="1" t="s">
         <v>608</v>
       </c>
       <c r="C594" s="1" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A595" s="1" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="B595" s="1" t="s">
         <v>609</v>
       </c>
       <c r="C595" s="1" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A596" s="1" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="B596" s="1" t="s">
         <v>610</v>
@@ -12407,7 +12412,7 @@
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A597" s="1" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="B597" s="1" t="s">
         <v>612</v>
@@ -12418,7 +12423,7 @@
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A598" s="1" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="B598" s="1" t="s">
         <v>613</v>
@@ -12429,7 +12434,7 @@
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A599" s="1" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="B599" s="1" t="s">
         <v>614</v>
@@ -12440,18 +12445,18 @@
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A600" s="1" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="B600" s="1" t="s">
         <v>615</v>
       </c>
       <c r="C600" s="1" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A601" s="1" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="B601" s="1" t="s">
         <v>616</v>
@@ -12462,7 +12467,7 @@
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A602" s="1" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="B602" s="1" t="s">
         <v>617</v>
@@ -12473,7 +12478,7 @@
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A603" s="1" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="B603" s="1" t="s">
         <v>618</v>
@@ -12484,18 +12489,18 @@
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A604" s="1" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="B604" s="1" t="s">
         <v>619</v>
       </c>
       <c r="C604" s="1" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A605" s="1" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="B605" s="1" t="s">
         <v>620</v>
@@ -12506,18 +12511,18 @@
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A606" s="1" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="B606" s="1" t="s">
         <v>621</v>
       </c>
       <c r="C606" s="1" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A607" s="1" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="B607" s="1" t="s">
         <v>622</v>
@@ -12528,359 +12533,359 @@
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A608" s="1" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="B608" s="1" t="s">
         <v>624</v>
       </c>
       <c r="C608" s="1" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A609" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="B609" s="1" t="s">
         <v>625</v>
       </c>
       <c r="C609" s="1" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A610" s="1" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="B610" s="1" t="s">
         <v>626</v>
       </c>
       <c r="C610" s="1" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A611" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="B611" s="1" t="s">
         <v>627</v>
       </c>
       <c r="C611" s="1" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="612" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A612" s="1" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="B612" s="1" t="s">
         <v>628</v>
       </c>
       <c r="C612" s="1" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A613" s="1" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="B613" s="1" t="s">
         <v>629</v>
       </c>
       <c r="C613" s="1" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="614" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A614" s="1" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="B614" s="1" t="s">
         <v>630</v>
       </c>
       <c r="C614" s="1" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A615" s="1" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="B615" s="1" t="s">
         <v>631</v>
       </c>
       <c r="C615" s="1" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="616" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A616" s="1" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="B616" s="1" t="s">
         <v>632</v>
       </c>
       <c r="C616" s="1" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A617" s="1" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="B617" s="1" t="s">
         <v>633</v>
       </c>
       <c r="C617" s="1" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A618" s="1" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="B618" s="1" t="s">
         <v>634</v>
       </c>
       <c r="C618" s="1" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A619" s="1" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="B619" s="1" t="s">
         <v>635</v>
       </c>
       <c r="C619" s="1" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="620" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A620" s="1" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="B620" s="1" t="s">
         <v>636</v>
       </c>
       <c r="C620" s="1" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A621" s="1" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="B621" s="1" t="s">
         <v>637</v>
       </c>
       <c r="C621" s="1" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="622" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A622" s="1" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="B622" s="1" t="s">
         <v>638</v>
       </c>
       <c r="C622" s="1" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="623" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A623" s="1" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="B623" s="1" t="s">
         <v>639</v>
       </c>
       <c r="C623" s="1" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="624" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A624" s="1" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="B624" s="1" t="s">
         <v>640</v>
       </c>
       <c r="C624" s="1" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="625" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A625" s="1" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="B625" s="1" t="s">
         <v>641</v>
       </c>
       <c r="C625" s="1" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A626" s="1" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="B626" s="1" t="s">
         <v>642</v>
       </c>
       <c r="C626" s="1" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A627" s="1" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="B627" s="1" t="s">
         <v>643</v>
       </c>
       <c r="C627" s="1" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A628" s="1" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="B628" s="1" t="s">
         <v>644</v>
       </c>
       <c r="C628" s="1" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A629" s="1" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="B629" s="1" t="s">
         <v>645</v>
       </c>
       <c r="C629" s="1" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="630" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A630" s="1" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="B630" s="1" t="s">
         <v>646</v>
       </c>
       <c r="C630" s="1" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="631" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A631" s="1" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="B631" s="1" t="s">
         <v>647</v>
       </c>
       <c r="C631" s="1" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="632" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A632" s="1" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="B632" s="1" t="s">
         <v>648</v>
       </c>
       <c r="C632" s="1" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="633" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A633" s="1" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="B633" s="1" t="s">
         <v>649</v>
       </c>
       <c r="C633" s="1" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="634" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A634" s="1" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="B634" s="1" t="s">
         <v>650</v>
       </c>
       <c r="C634" s="1" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="635" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A635" s="1" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="B635" s="1" t="s">
         <v>651</v>
       </c>
       <c r="C635" s="1" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="636" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A636" s="1" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="B636" s="1" t="s">
         <v>652</v>
       </c>
       <c r="C636" s="1" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="637" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A637" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="B637" s="1" t="s">
         <v>653</v>
       </c>
       <c r="C637" s="1" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="638" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A638" s="1" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="B638" s="1" t="s">
         <v>654</v>
       </c>
       <c r="C638" s="1" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="639" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A639" s="1" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="B639" s="1" t="s">
         <v>655</v>
       </c>
       <c r="C639" s="1" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="640" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A640" s="1" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="B640" s="1" t="s">
         <v>656</v>
@@ -12891,84 +12896,84 @@
     </row>
     <row r="641" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A641" s="1" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="B641" s="1" t="s">
         <v>658</v>
       </c>
       <c r="C641" s="1" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="642" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A642" s="1" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="B642" s="1" t="s">
         <v>659</v>
       </c>
       <c r="C642" s="1" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="643" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A643" s="1" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="B643" s="1" t="s">
         <v>660</v>
       </c>
       <c r="C643" s="1" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="644" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A644" s="1" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="B644" s="1" t="s">
         <v>661</v>
       </c>
       <c r="C644" s="1" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="645" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A645" s="1" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="B645" s="1" t="s">
         <v>662</v>
       </c>
       <c r="C645" s="1" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="646" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A646" s="1" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="B646" s="1" t="s">
         <v>663</v>
       </c>
       <c r="C646" s="1" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="647" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A647" s="1" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="B647" s="1" t="s">
         <v>664</v>
       </c>
       <c r="C647" s="1" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="648" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A648" s="1" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="B648" s="1" t="s">
         <v>665</v>
@@ -12979,40 +12984,40 @@
     </row>
     <row r="649" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A649" s="1" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="B649" s="1" t="s">
         <v>667</v>
       </c>
       <c r="C649" s="1" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="650" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A650" s="1" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="B650" s="1" t="s">
         <v>668</v>
       </c>
       <c r="C650" s="1" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="651" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A651" s="1" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="B651" s="1" t="s">
         <v>669</v>
       </c>
       <c r="C651" s="1" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="652" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A652" s="1" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="B652" s="1" t="s">
         <v>670</v>
@@ -13023,1261 +13028,1261 @@
     </row>
     <row r="653" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A653" s="1" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="B653" s="1" t="s">
         <v>672</v>
       </c>
       <c r="C653" s="1" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="654" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A654" s="1" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="B654" s="1" t="s">
         <v>673</v>
       </c>
       <c r="C654" s="1" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="655" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A655" s="1" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="B655" s="1" t="s">
         <v>674</v>
       </c>
       <c r="C655" s="1" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="656" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A656" s="1" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="B656" s="1" t="s">
         <v>675</v>
       </c>
       <c r="C656" s="1" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="657" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A657" s="1" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="B657" s="1" t="s">
         <v>676</v>
       </c>
       <c r="C657" s="1" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="658" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A658" s="1" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="B658" s="1" t="s">
         <v>677</v>
       </c>
       <c r="C658" s="1" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="659" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A659" s="1" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="B659" s="1" t="s">
         <v>678</v>
       </c>
       <c r="C659" s="1" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="660" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A660" s="1" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="B660" s="1" t="s">
         <v>679</v>
       </c>
       <c r="C660" s="1" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="661" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A661" s="1" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="B661" s="1" t="s">
         <v>680</v>
       </c>
       <c r="C661" s="1" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="662" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A662" s="1" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="B662" s="1" t="s">
         <v>681</v>
       </c>
       <c r="C662" s="1" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="663" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A663" s="1" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="B663" s="1" t="s">
         <v>682</v>
       </c>
       <c r="C663" s="1" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="664" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A664" s="1" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="B664" s="1" t="s">
         <v>683</v>
       </c>
       <c r="C664" s="1" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="665" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A665" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="B665" s="1" t="s">
         <v>684</v>
       </c>
       <c r="C665" s="1" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="666" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A666" s="1" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="B666" s="1" t="s">
         <v>685</v>
       </c>
       <c r="C666" s="1" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="667" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A667" s="1" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="B667" s="1" t="s">
         <v>686</v>
       </c>
       <c r="C667" s="1" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="668" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A668" s="1" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="B668" s="1" t="s">
         <v>687</v>
       </c>
       <c r="C668" s="1" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="669" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A669" s="1" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="B669" s="1" t="s">
         <v>688</v>
       </c>
       <c r="C669" s="1" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="670" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A670" s="1" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="B670" s="1" t="s">
         <v>689</v>
       </c>
       <c r="C670" s="1" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="671" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A671" s="1" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="B671" s="1" t="s">
         <v>690</v>
       </c>
       <c r="C671" s="1" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="672" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A672" s="1" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="B672" s="1" t="s">
         <v>691</v>
       </c>
       <c r="C672" s="1" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="673" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A673" s="1" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="B673" s="1" t="s">
         <v>692</v>
       </c>
       <c r="C673" s="1" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="674" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A674" s="1" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="B674" s="1" t="s">
         <v>693</v>
       </c>
       <c r="C674" s="1" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="675" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A675" s="1" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="B675" s="1" t="s">
         <v>694</v>
       </c>
       <c r="C675" s="1" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="676" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A676" s="1" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="B676" s="1" t="s">
         <v>695</v>
       </c>
       <c r="C676" s="1" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="677" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A677" s="1" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="B677" s="1" t="s">
         <v>696</v>
       </c>
       <c r="C677" s="1" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="678" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A678" s="1" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="B678" s="1" t="s">
         <v>697</v>
       </c>
       <c r="C678" s="1" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="679" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A679" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="B679" s="1" t="s">
         <v>698</v>
       </c>
       <c r="C679" s="1" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="680" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A680" s="1" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="B680" s="1" t="s">
         <v>699</v>
       </c>
       <c r="C680" s="1" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="681" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A681" s="1" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="B681" s="1" t="s">
         <v>700</v>
       </c>
       <c r="C681" s="1" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="682" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A682" s="1" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="B682" s="1" t="s">
         <v>701</v>
       </c>
       <c r="C682" s="1" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="683" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A683" s="1" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="B683" s="1" t="s">
         <v>702</v>
       </c>
       <c r="C683" s="1" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="684" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A684" s="1" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="B684" s="1" t="s">
         <v>703</v>
       </c>
       <c r="C684" s="1" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="685" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A685" s="1" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="B685" s="1" t="s">
         <v>704</v>
       </c>
       <c r="C685" s="1" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="686" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A686" s="1" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="B686" s="1" t="s">
         <v>705</v>
       </c>
       <c r="C686" s="1" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="687" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A687" s="1" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="B687" s="1" t="s">
         <v>706</v>
       </c>
       <c r="C687" s="1" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="688" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A688" s="1" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="B688" s="1" t="s">
         <v>707</v>
       </c>
       <c r="C688" s="1" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="689" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A689" s="1" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="B689" s="1" t="s">
         <v>708</v>
       </c>
       <c r="C689" s="1" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="690" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A690" s="1" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="B690" s="1" t="s">
         <v>709</v>
       </c>
       <c r="C690" s="1" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="691" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A691" s="1" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="B691" s="1" t="s">
         <v>710</v>
       </c>
       <c r="C691" s="1" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="692" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A692" s="1" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="B692" s="1" t="s">
         <v>711</v>
       </c>
       <c r="C692" s="1" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="693" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A693" s="1" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="B693" s="1" t="s">
         <v>712</v>
       </c>
       <c r="C693" s="1" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="694" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A694" s="1" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="B694" s="1" t="s">
         <v>713</v>
       </c>
       <c r="C694" s="1" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="695" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A695" s="1" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="B695" s="1" t="s">
         <v>714</v>
       </c>
       <c r="C695" s="1" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="696" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A696" s="1" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="B696" s="1" t="s">
         <v>715</v>
       </c>
       <c r="C696" s="1" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="697" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A697" s="1" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="B697" s="1" t="s">
         <v>716</v>
       </c>
       <c r="C697" s="1" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="698" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A698" s="1" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="B698" s="1" t="s">
         <v>717</v>
       </c>
       <c r="C698" s="1" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="699" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A699" s="1" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="B699" s="1" t="s">
         <v>718</v>
       </c>
       <c r="C699" s="1" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="700" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A700" s="1" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="B700" s="1" t="s">
         <v>719</v>
       </c>
       <c r="C700" s="1" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="701" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A701" s="1" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="B701" s="1" t="s">
         <v>720</v>
       </c>
       <c r="C701" s="1" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="702" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A702" s="1" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="B702" s="1" t="s">
         <v>721</v>
       </c>
       <c r="C702" s="1" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="703" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A703" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="B703" s="1" t="s">
         <v>722</v>
       </c>
       <c r="C703" s="1" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="704" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A704" s="1" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="B704" s="1" t="s">
         <v>723</v>
       </c>
       <c r="C704" s="1" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="705" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A705" s="1" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="B705" s="1" t="s">
         <v>724</v>
       </c>
       <c r="C705" s="1" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="706" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A706" s="1" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="B706" s="1" t="s">
         <v>725</v>
       </c>
       <c r="C706" s="1" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="707" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A707" s="1" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="B707" s="1" t="s">
         <v>726</v>
       </c>
       <c r="C707" s="1" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="708" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A708" s="1" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="B708" s="1" t="s">
         <v>727</v>
       </c>
       <c r="C708" s="1" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="709" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A709" s="1" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="B709" s="1" t="s">
         <v>728</v>
       </c>
       <c r="C709" s="1" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="710" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A710" s="1" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="B710" s="1" t="s">
         <v>729</v>
       </c>
       <c r="C710" s="1" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="711" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A711" s="1" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="B711" s="1" t="s">
         <v>730</v>
       </c>
       <c r="C711" s="1" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="712" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A712" s="1" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="B712" s="1" t="s">
         <v>731</v>
       </c>
       <c r="C712" s="1" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="713" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A713" s="1" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="B713" s="1" t="s">
         <v>732</v>
       </c>
       <c r="C713" s="1" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="714" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A714" s="1" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="B714" s="1" t="s">
         <v>733</v>
       </c>
       <c r="C714" s="1" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="715" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A715" s="1" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="B715" s="1" t="s">
         <v>734</v>
       </c>
       <c r="C715" s="1" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="716" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A716" s="1" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="B716" s="1" t="s">
         <v>735</v>
       </c>
       <c r="C716" s="1" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="717" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A717" s="1" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="B717" s="1" t="s">
         <v>736</v>
       </c>
       <c r="C717" s="1" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="718" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A718" s="1" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="B718" s="1" t="s">
         <v>737</v>
       </c>
       <c r="C718" s="1" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="719" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A719" s="1" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="B719" s="1" t="s">
         <v>738</v>
       </c>
       <c r="C719" s="1" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="720" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A720" s="1" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="B720" s="1" t="s">
         <v>739</v>
       </c>
       <c r="C720" s="1" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="721" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A721" s="1" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="B721" s="1" t="s">
         <v>740</v>
       </c>
       <c r="C721" s="1" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="722" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A722" s="1" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="B722" s="1" t="s">
         <v>741</v>
       </c>
       <c r="C722" s="1" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="723" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A723" s="1" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="B723" s="1" t="s">
         <v>742</v>
       </c>
       <c r="C723" s="1" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="724" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A724" s="1" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="B724" s="1" t="s">
         <v>743</v>
       </c>
       <c r="C724" s="1" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="725" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A725" s="1" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="B725" s="1" t="s">
         <v>744</v>
       </c>
       <c r="C725" s="1" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="726" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A726" s="1" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="B726" s="1" t="s">
         <v>745</v>
       </c>
       <c r="C726" s="1" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="727" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A727" s="1" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="B727" s="1" t="s">
         <v>746</v>
       </c>
       <c r="C727" s="1" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="728" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A728" s="1" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="B728" s="1" t="s">
         <v>747</v>
       </c>
       <c r="C728" s="1" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="729" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A729" s="1" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="B729" s="1" t="s">
         <v>748</v>
       </c>
       <c r="C729" s="1" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="730" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A730" s="1" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="B730" s="1" t="s">
         <v>749</v>
       </c>
       <c r="C730" s="1" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="731" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A731" s="1" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="B731" s="1" t="s">
         <v>750</v>
       </c>
       <c r="C731" s="1" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="732" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A732" s="1" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="B732" s="1" t="s">
         <v>751</v>
       </c>
       <c r="C732" s="1" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="733" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A733" s="1" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="B733" s="1" t="s">
         <v>752</v>
       </c>
       <c r="C733" s="1" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="734" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A734" s="1" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="B734" s="1" t="s">
         <v>753</v>
       </c>
       <c r="C734" s="1" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="735" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A735" s="1" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="B735" s="1" t="s">
         <v>754</v>
       </c>
       <c r="C735" s="1" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="736" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A736" s="1" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="B736" s="1" t="s">
         <v>755</v>
       </c>
       <c r="C736" s="1" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="737" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A737" s="1" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="B737" s="1" t="s">
         <v>756</v>
       </c>
       <c r="C737" s="1" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="738" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A738" s="1" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="B738" s="1" t="s">
         <v>757</v>
       </c>
       <c r="C738" s="1" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="739" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A739" s="1" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="B739" s="1" t="s">
         <v>758</v>
       </c>
       <c r="C739" s="1" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="740" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A740" s="1" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="B740" s="1" t="s">
         <v>759</v>
       </c>
       <c r="C740" s="1" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="741" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A741" s="1" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="B741" s="1" t="s">
         <v>760</v>
       </c>
       <c r="C741" s="1" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="742" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A742" s="1" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="B742" s="1" t="s">
         <v>761</v>
       </c>
       <c r="C742" s="1" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="743" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A743" s="1" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="B743" s="1" t="s">
         <v>762</v>
       </c>
       <c r="C743" s="1" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="744" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A744" s="1" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="B744" s="1" t="s">
         <v>763</v>
       </c>
       <c r="C744" s="1" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="745" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A745" s="1" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="B745" s="1" t="s">
         <v>764</v>
       </c>
       <c r="C745" s="1" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="746" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A746" s="1" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="B746" s="1" t="s">
         <v>765</v>
       </c>
       <c r="C746" s="1" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="747" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A747" s="1" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="B747" s="1" t="s">
         <v>766</v>
       </c>
       <c r="C747" s="1" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="748" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A748" s="1" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="B748" s="1" t="s">
         <v>767</v>
       </c>
       <c r="C748" s="1" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="749" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A749" s="1" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="B749" s="1" t="s">
         <v>768</v>
       </c>
       <c r="C749" s="1" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="750" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A750" s="1" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="B750" s="1" t="s">
         <v>769</v>
       </c>
       <c r="C750" s="1" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="751" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A751" s="1" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="B751" s="1" t="s">
         <v>770</v>
       </c>
       <c r="C751" s="1" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="752" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A752" s="1" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="B752" s="1" t="s">
         <v>771</v>
       </c>
       <c r="C752" s="1" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="753" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A753" s="1" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="B753" s="1" t="s">
         <v>772</v>
       </c>
       <c r="C753" s="1" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="754" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A754" s="1" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="B754" s="1" t="s">
         <v>773</v>
       </c>
       <c r="C754" s="1" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="755" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A755" s="1" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="B755" s="1" t="s">
         <v>774</v>
       </c>
       <c r="C755" s="1" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="756" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A756" s="1" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="B756" s="1" t="s">
         <v>775</v>
       </c>
       <c r="C756" s="1" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="757" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A757" s="1" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="B757" s="1" t="s">
         <v>776</v>
       </c>
       <c r="C757" s="1" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="758" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A758" s="1" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="B758" s="1" t="s">
         <v>777</v>
       </c>
       <c r="C758" s="1" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="759" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A759" s="1" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="B759" s="1" t="s">
         <v>778</v>
       </c>
       <c r="C759" s="1" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="760" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A760" s="1" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="B760" s="1" t="s">
         <v>779</v>
       </c>
       <c r="C760" s="1" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="761" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A761" s="1" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="B761" s="1" t="s">
         <v>780</v>
       </c>
       <c r="C761" s="1" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="762" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A762" s="1" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="B762" s="1" t="s">
         <v>781</v>
       </c>
       <c r="C762" s="1" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="763" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A763" s="1" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="B763" s="1" t="s">
         <v>782</v>
       </c>
       <c r="C763" s="1" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="764" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A764" s="1" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="B764" s="1" t="s">
         <v>783</v>
       </c>
       <c r="C764" s="1" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="765" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A765" s="1" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="B765" s="1" t="s">
         <v>784</v>
       </c>
       <c r="C765" s="1" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="766" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A766" s="1" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="B766" s="1" t="s">
         <v>785</v>
       </c>
       <c r="C766" s="1" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="767" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A767" s="1" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="B767" s="1" t="s">
         <v>786</v>
@@ -14288,18 +14293,18 @@
     </row>
     <row r="768" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A768" s="1" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="B768" s="1" t="s">
         <v>788</v>
       </c>
       <c r="C768" s="1" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="769" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A769" s="1" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="B769" s="1" t="s">
         <v>789</v>
@@ -14310,29 +14315,29 @@
     </row>
     <row r="770" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A770" s="1" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="B770" s="1" t="s">
         <v>791</v>
       </c>
       <c r="C770" s="1" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="771" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A771" s="1" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="B771" s="1" t="s">
         <v>792</v>
       </c>
       <c r="C771" s="1" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="772" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A772" s="1" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="B772" s="1" t="s">
         <v>793</v>
@@ -14343,7 +14348,7 @@
     </row>
     <row r="773" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A773" s="1" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="B773" s="1" t="s">
         <v>795</v>
@@ -14354,7 +14359,7 @@
     </row>
     <row r="774" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A774" s="1" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="B774" s="1" t="s">
         <v>796</v>
@@ -14365,40 +14370,40 @@
     </row>
     <row r="775" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A775" s="1" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="B775" s="1" t="s">
         <v>797</v>
       </c>
       <c r="C775" s="1" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="776" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A776" s="1" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="B776" s="1" t="s">
         <v>798</v>
       </c>
       <c r="C776" s="1" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="777" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A777" s="1" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="B777" s="1" t="s">
         <v>799</v>
       </c>
       <c r="C777" s="1" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="778" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A778" s="1" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="B778" s="1" t="s">
         <v>800</v>
@@ -14409,7 +14414,7 @@
     </row>
     <row r="779" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A779" s="1" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="B779" s="1" t="s">
         <v>801</v>
@@ -14420,7 +14425,7 @@
     </row>
     <row r="780" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A780" s="1" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="B780" s="1" t="s">
         <v>802</v>
@@ -14431,18 +14436,18 @@
     </row>
     <row r="781" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A781" s="1" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="B781" s="1" t="s">
         <v>804</v>
       </c>
       <c r="C781" s="1" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="782" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A782" s="1" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="B782" s="1" t="s">
         <v>805</v>
@@ -14453,7 +14458,7 @@
     </row>
     <row r="783" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A783" s="1" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="B783" s="1" t="s">
         <v>807</v>
@@ -14464,7 +14469,7 @@
     </row>
     <row r="784" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A784" s="1" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="B784" s="1" t="s">
         <v>809</v>
@@ -14475,18 +14480,18 @@
     </row>
     <row r="785" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A785" s="1" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="B785" s="1" t="s">
         <v>811</v>
       </c>
       <c r="C785" s="1" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="786" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A786" s="1" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="B786" s="1" t="s">
         <v>812</v>
@@ -14497,29 +14502,29 @@
     </row>
     <row r="787" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A787" s="1" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="B787" s="1" t="s">
         <v>813</v>
       </c>
       <c r="C787" s="1" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="788" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A788" s="1" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="B788" s="1" t="s">
         <v>814</v>
       </c>
       <c r="C788" s="1" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="789" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A789" s="1" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="B789" s="1" t="s">
         <v>815</v>
@@ -14530,7 +14535,7 @@
     </row>
     <row r="790" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A790" s="1" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="B790" s="1" t="s">
         <v>817</v>
@@ -14541,95 +14546,95 @@
     </row>
     <row r="791" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A791" s="1" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="B791" s="1" t="s">
         <v>819</v>
       </c>
       <c r="C791" s="1" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="792" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A792" s="1" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B792" s="1" t="s">
         <v>820</v>
       </c>
       <c r="C792" s="1" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="793" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A793" s="1" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="B793" s="1" t="s">
         <v>821</v>
       </c>
       <c r="C793" s="1" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="794" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A794" s="1" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="B794" s="1" t="s">
         <v>822</v>
       </c>
       <c r="C794" s="1" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="795" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A795" s="1" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="B795" s="1" t="s">
         <v>823</v>
       </c>
       <c r="C795" s="1" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="796" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A796" s="1" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="B796" s="1" t="s">
         <v>824</v>
       </c>
       <c r="C796" s="1" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="797" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A797" s="1" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="B797" s="1" t="s">
         <v>825</v>
       </c>
       <c r="C797" s="1" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="798" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A798" s="1" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="B798" s="1" t="s">
         <v>826</v>
       </c>
       <c r="C798" s="1" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="799" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A799" s="1" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="B799" s="1" t="s">
         <v>827</v>
@@ -14640,7 +14645,7 @@
     </row>
     <row r="800" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A800" s="1" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="B800" s="1" t="s">
         <v>828</v>
@@ -14651,7 +14656,7 @@
     </row>
     <row r="801" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A801" s="1" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="B801" s="1" t="s">
         <v>829</v>
@@ -14662,29 +14667,29 @@
     </row>
     <row r="802" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A802" s="1" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="B802" s="1" t="s">
         <v>830</v>
       </c>
       <c r="C802" s="1" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="803" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A803" s="1" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="B803" s="1" t="s">
         <v>831</v>
       </c>
       <c r="C803" s="1" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="804" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A804" s="1" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="B804" s="1" t="s">
         <v>832</v>
@@ -14695,7 +14700,7 @@
     </row>
     <row r="805" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A805" s="1" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="B805" s="1" t="s">
         <v>834</v>
@@ -14706,7 +14711,7 @@
     </row>
     <row r="806" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A806" s="1" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="B806" s="1" t="s">
         <v>836</v>
@@ -14714,7 +14719,7 @@
     </row>
     <row r="807" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A807" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="B807" s="1" t="s">
         <v>837</v>
@@ -14722,7 +14727,7 @@
     </row>
     <row r="808" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A808" s="1" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="B808" s="1" t="s">
         <v>838</v>
@@ -14730,7 +14735,7 @@
     </row>
     <row r="809" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A809" s="1" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="B809" s="1" t="s">
         <v>839</v>
@@ -14738,7 +14743,7 @@
     </row>
     <row r="810" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A810" s="1" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="B810" s="1" t="s">
         <v>840</v>
@@ -14746,7 +14751,7 @@
     </row>
     <row r="811" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A811" s="1" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="B811" s="1" t="s">
         <v>841</v>
@@ -14754,7 +14759,7 @@
     </row>
     <row r="812" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A812" s="1" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="B812" s="1" t="s">
         <v>842</v>
@@ -14762,7 +14767,7 @@
     </row>
     <row r="813" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A813" s="1" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="B813" s="1" t="s">
         <v>843</v>
@@ -14773,7 +14778,7 @@
     </row>
     <row r="814" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A814" s="1" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="B814" s="1" t="s">
         <v>844</v>
@@ -14784,7 +14789,7 @@
     </row>
     <row r="815" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A815" s="1" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="B815" s="1" t="s">
         <v>845</v>
@@ -14795,7 +14800,7 @@
     </row>
     <row r="816" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A816" s="1" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="B816" s="1" t="s">
         <v>847</v>
@@ -14803,7 +14808,7 @@
     </row>
     <row r="817" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A817" s="1" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="B817" s="1" t="s">
         <v>848</v>
@@ -14811,40 +14816,40 @@
     </row>
     <row r="818" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A818" s="1" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="B818" s="1" t="s">
         <v>849</v>
       </c>
       <c r="C818" s="1" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="819" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A819" s="1" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="B819" s="1" t="s">
         <v>850</v>
       </c>
       <c r="C819" s="1" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="820" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A820" s="1" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="B820" s="1" t="s">
         <v>851</v>
       </c>
       <c r="C820" s="1" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="821" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A821" s="1" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="B821" s="1" t="s">
         <v>852</v>
@@ -14855,128 +14860,128 @@
     </row>
     <row r="822" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A822" s="1" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="B822" s="1" t="s">
         <v>854</v>
       </c>
       <c r="C822" s="1" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="823" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A823" s="1" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="B823" s="1" t="s">
         <v>855</v>
       </c>
       <c r="C823" s="1" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="824" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A824" s="1" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="B824" s="1" t="s">
         <v>856</v>
       </c>
       <c r="C824" s="1" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="825" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A825" s="1" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="B825" s="1" t="s">
         <v>857</v>
       </c>
       <c r="C825" s="1" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="826" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A826" s="1" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="B826" s="1" t="s">
         <v>858</v>
       </c>
       <c r="C826" s="1" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="827" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A827" s="1" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="B827" s="1" t="s">
         <v>859</v>
       </c>
       <c r="C827" s="1" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="828" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A828" s="1" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="B828" s="1" t="s">
         <v>860</v>
       </c>
       <c r="C828" s="1" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="829" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A829" s="1" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="B829" s="1" t="s">
         <v>861</v>
       </c>
       <c r="C829" s="1" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="830" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A830" s="1" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="B830" s="1" t="s">
         <v>862</v>
       </c>
       <c r="C830" s="1" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="831" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A831" s="1" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="B831" s="1" t="s">
         <v>863</v>
       </c>
       <c r="C831" s="1" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="832" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A832" s="1" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="B832" s="1" t="s">
         <v>864</v>
       </c>
       <c r="C832" s="1" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="833" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A833" s="1" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="B833" s="1" t="s">
         <v>865</v>
@@ -14984,7 +14989,7 @@
     </row>
     <row r="834" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A834" s="1" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="B834" s="1" t="s">
         <v>866</v>
@@ -14992,7 +14997,7 @@
     </row>
     <row r="835" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A835" s="1" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="B835" s="1" t="s">
         <v>867</v>
@@ -15000,7 +15005,7 @@
     </row>
     <row r="836" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A836" s="1" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="B836" s="1" t="s">
         <v>868</v>
@@ -15008,7 +15013,7 @@
     </row>
     <row r="837" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A837" s="1" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="B837" s="1" t="s">
         <v>869</v>
@@ -15016,7 +15021,7 @@
     </row>
     <row r="838" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A838" s="1" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="B838" s="1" t="s">
         <v>870</v>
@@ -15024,7 +15029,7 @@
     </row>
     <row r="839" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A839" s="1" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="B839" s="1" t="s">
         <v>871</v>
@@ -15032,18 +15037,18 @@
     </row>
     <row r="840" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A840" s="1" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="B840" s="1" t="s">
         <v>872</v>
       </c>
       <c r="C840" s="1" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="841" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A841" s="1" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="B841" s="1" t="s">
         <v>873</v>
@@ -15051,7 +15056,7 @@
     </row>
     <row r="842" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A842" s="1" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="B842" s="1" t="s">
         <v>874</v>
@@ -15059,7 +15064,7 @@
     </row>
     <row r="843" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A843" s="1" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="B843" s="1" t="s">
         <v>875</v>
@@ -15067,7 +15072,7 @@
     </row>
     <row r="844" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A844" s="1" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="B844" s="1" t="s">
         <v>876</v>
@@ -15075,7 +15080,7 @@
     </row>
     <row r="845" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A845" s="1" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="B845" s="1" t="s">
         <v>877</v>
@@ -15083,7 +15088,7 @@
     </row>
     <row r="846" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A846" s="1" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="B846" s="1" t="s">
         <v>878</v>
@@ -15091,7 +15096,7 @@
     </row>
     <row r="847" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A847" s="1" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="B847" s="1" t="s">
         <v>879</v>
@@ -15099,18 +15104,18 @@
     </row>
     <row r="848" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A848" s="1" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="B848" s="1" t="s">
         <v>880</v>
       </c>
       <c r="C848" s="1" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="849" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A849" s="1" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="B849" s="1" t="s">
         <v>881</v>
@@ -15118,7 +15123,7 @@
     </row>
     <row r="850" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A850" s="1" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="B850" s="1" t="s">
         <v>882</v>
@@ -15126,7 +15131,7 @@
     </row>
     <row r="851" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A851" s="1" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="B851" s="1" t="s">
         <v>883</v>
@@ -15134,7 +15139,7 @@
     </row>
     <row r="852" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A852" s="1" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="B852" s="1" t="s">
         <v>884</v>
@@ -15142,7 +15147,7 @@
     </row>
     <row r="853" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A853" s="1" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="B853" s="1" t="s">
         <v>885</v>
@@ -15150,7 +15155,7 @@
     </row>
     <row r="854" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A854" s="1" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="B854" s="1" t="s">
         <v>886</v>
@@ -15158,7 +15163,7 @@
     </row>
     <row r="855" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A855" s="1" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="B855" s="1" t="s">
         <v>887</v>
@@ -15166,7 +15171,7 @@
     </row>
     <row r="856" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A856" s="1" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="B856" s="1" t="s">
         <v>888</v>
@@ -15174,7 +15179,7 @@
     </row>
     <row r="857" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A857" s="1" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="B857" s="1" t="s">
         <v>889</v>
@@ -15182,7 +15187,7 @@
     </row>
     <row r="858" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A858" s="1" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="B858" s="1" t="s">
         <v>890</v>
@@ -15190,7 +15195,7 @@
     </row>
     <row r="859" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A859" s="1" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="B859" s="1" t="s">
         <v>891</v>
@@ -15198,7 +15203,7 @@
     </row>
     <row r="860" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A860" s="1" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="B860" s="1" t="s">
         <v>892</v>
@@ -15206,7 +15211,7 @@
     </row>
     <row r="861" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A861" s="1" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="B861" s="1" t="s">
         <v>893</v>
@@ -15214,7 +15219,7 @@
     </row>
     <row r="862" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A862" s="1" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="B862" s="1" t="s">
         <v>894</v>
@@ -15222,7 +15227,7 @@
     </row>
     <row r="863" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A863" s="1" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="B863" s="1" t="s">
         <v>895</v>
@@ -15230,7 +15235,7 @@
     </row>
     <row r="864" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A864" s="1" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="B864" s="1" t="s">
         <v>896</v>
@@ -15238,7 +15243,7 @@
     </row>
     <row r="865" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A865" s="1" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="B865" s="1" t="s">
         <v>897</v>
@@ -15246,7 +15251,7 @@
     </row>
     <row r="866" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A866" s="1" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="B866" s="1" t="s">
         <v>898</v>
@@ -15254,7 +15259,7 @@
     </row>
     <row r="867" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A867" s="1" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="B867" s="1" t="s">
         <v>899</v>
@@ -15262,7 +15267,7 @@
     </row>
     <row r="868" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A868" s="1" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="B868" s="1" t="s">
         <v>900</v>
@@ -15270,7 +15275,7 @@
     </row>
     <row r="869" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A869" s="1" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="B869" s="1" t="s">
         <v>901</v>
@@ -15278,7 +15283,7 @@
     </row>
     <row r="870" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A870" s="1" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="B870" s="1" t="s">
         <v>902</v>
